--- a/data/raw/tatasteel.xlsx
+++ b/data/raw/tatasteel.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6624,6 +6624,31 @@
         <v>62282856</v>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="C248" t="n">
+        <v>137.6499938965</v>
+      </c>
+      <c r="D248" t="n">
+        <v>140.3000030518</v>
+      </c>
+      <c r="E248" t="n">
+        <v>137.0500030518</v>
+      </c>
+      <c r="F248" t="n">
+        <v>139.1799926758</v>
+      </c>
+      <c r="G248" t="n">
+        <v>26503486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/raw/tatasteel.xlsx
+++ b/data/raw/tatasteel.xlsx
@@ -481,22 +481,22 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5649883474</v>
+        <v>159.241644377</v>
       </c>
       <c r="D2" t="n">
-        <v>161.4472075587</v>
+        <v>163.6037548407</v>
       </c>
       <c r="E2" t="n">
-        <v>158.3104098594</v>
+        <v>158.2613941624</v>
       </c>
       <c r="F2" t="n">
-        <v>158.653503418</v>
+        <v>162.2804260254</v>
       </c>
       <c r="G2" t="n">
-        <v>39304790</v>
+        <v>59894921</v>
       </c>
     </row>
     <row r="3">
@@ -506,22 +506,22 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45405</v>
+        <v>45407</v>
       </c>
       <c r="C3" t="n">
-        <v>160.2709096549</v>
+        <v>162.1333762719</v>
       </c>
       <c r="D3" t="n">
-        <v>160.2709096549</v>
+        <v>164.6820327619</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6242370741</v>
+        <v>160.9080635281</v>
       </c>
       <c r="F3" t="n">
-        <v>157.9673156738</v>
+        <v>164.3879547119</v>
       </c>
       <c r="G3" t="n">
-        <v>30295177</v>
+        <v>50128523</v>
       </c>
     </row>
     <row r="4">
@@ -531,22 +531,22 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="C4" t="n">
-        <v>159.241644377</v>
+        <v>164.6820295735</v>
       </c>
       <c r="D4" t="n">
-        <v>163.6037548407</v>
+        <v>167.3287020573</v>
       </c>
       <c r="E4" t="n">
-        <v>158.2613941624</v>
+        <v>161.9863415894</v>
       </c>
       <c r="F4" t="n">
-        <v>162.2804260254</v>
+        <v>162.5254821777</v>
       </c>
       <c r="G4" t="n">
-        <v>59894921</v>
+        <v>65355111</v>
       </c>
     </row>
     <row r="5">
@@ -556,22 +556,22 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45407</v>
+        <v>45411</v>
       </c>
       <c r="C5" t="n">
-        <v>162.1333762719</v>
+        <v>164.8780751959</v>
       </c>
       <c r="D5" t="n">
-        <v>164.6820327619</v>
+        <v>166.2504344049</v>
       </c>
       <c r="E5" t="n">
-        <v>160.9080635281</v>
+        <v>163.6037469865</v>
       </c>
       <c r="F5" t="n">
-        <v>164.3879547119</v>
+        <v>164.0938720703</v>
       </c>
       <c r="G5" t="n">
-        <v>50128523</v>
+        <v>44906151</v>
       </c>
     </row>
     <row r="6">
@@ -581,22 +581,22 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="C6" t="n">
-        <v>164.6820295735</v>
+        <v>165.0741320157</v>
       </c>
       <c r="D6" t="n">
-        <v>167.3287020573</v>
+        <v>165.0741320157</v>
       </c>
       <c r="E6" t="n">
-        <v>161.9863415894</v>
+        <v>161.2511621186</v>
       </c>
       <c r="F6" t="n">
-        <v>162.5254821777</v>
+        <v>161.7412872314</v>
       </c>
       <c r="G6" t="n">
-        <v>65355111</v>
+        <v>55043389</v>
       </c>
     </row>
     <row r="7">
@@ -606,22 +606,22 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="C7" t="n">
-        <v>164.8780751959</v>
+        <v>161.7412821577</v>
       </c>
       <c r="D7" t="n">
-        <v>166.2504344049</v>
+        <v>165.5642519348</v>
       </c>
       <c r="E7" t="n">
-        <v>163.6037469865</v>
+        <v>161.7412821577</v>
       </c>
       <c r="F7" t="n">
-        <v>164.0938720703</v>
+        <v>164.0448760986</v>
       </c>
       <c r="G7" t="n">
-        <v>44906151</v>
+        <v>69320283</v>
       </c>
     </row>
     <row r="8">
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45412</v>
+        <v>45415</v>
       </c>
       <c r="C8" t="n">
-        <v>165.0741320157</v>
+        <v>165.6132646081</v>
       </c>
       <c r="D8" t="n">
-        <v>165.0741320157</v>
+        <v>167.3777179203</v>
       </c>
       <c r="E8" t="n">
-        <v>161.2511621186</v>
+        <v>161.8883109396</v>
       </c>
       <c r="F8" t="n">
-        <v>161.7412872314</v>
+        <v>163.2116546631</v>
       </c>
       <c r="G8" t="n">
-        <v>55043389</v>
+        <v>62573586</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45414</v>
+        <v>45418</v>
       </c>
       <c r="C9" t="n">
-        <v>161.7412821577</v>
+        <v>164.6330108314</v>
       </c>
       <c r="D9" t="n">
-        <v>165.5642519348</v>
+        <v>165.3191829496</v>
       </c>
       <c r="E9" t="n">
-        <v>161.7412821577</v>
+        <v>161.447197822</v>
       </c>
       <c r="F9" t="n">
-        <v>164.0448760986</v>
+        <v>164.289932251</v>
       </c>
       <c r="G9" t="n">
-        <v>69320283</v>
+        <v>37621296</v>
       </c>
     </row>
     <row r="10">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="C10" t="n">
-        <v>165.6132646081</v>
+        <v>164.6330108456</v>
       </c>
       <c r="D10" t="n">
-        <v>167.3777179203</v>
+        <v>164.6330108456</v>
       </c>
       <c r="E10" t="n">
-        <v>161.8883109396</v>
+        <v>159.0946034425</v>
       </c>
       <c r="F10" t="n">
-        <v>163.2116546631</v>
+        <v>161.0060882568</v>
       </c>
       <c r="G10" t="n">
-        <v>62573586</v>
+        <v>43611824</v>
       </c>
     </row>
     <row r="11">
@@ -706,22 +706,22 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="C11" t="n">
-        <v>164.6330108314</v>
+        <v>160.9570695927</v>
       </c>
       <c r="D11" t="n">
-        <v>165.3191829496</v>
+        <v>163.799803966</v>
       </c>
       <c r="E11" t="n">
-        <v>161.447197822</v>
+        <v>160.2708974879</v>
       </c>
       <c r="F11" t="n">
-        <v>164.289932251</v>
+        <v>162.7705383301</v>
       </c>
       <c r="G11" t="n">
-        <v>37621296</v>
+        <v>30128705</v>
       </c>
     </row>
     <row r="12">
@@ -731,22 +731,22 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="C12" t="n">
-        <v>164.6330108456</v>
+        <v>162.6725156409</v>
       </c>
       <c r="D12" t="n">
-        <v>164.6330108456</v>
+        <v>163.4077032816</v>
       </c>
       <c r="E12" t="n">
-        <v>159.0946034425</v>
+        <v>158.3104052976</v>
       </c>
       <c r="F12" t="n">
-        <v>161.0060882568</v>
+        <v>158.7024993896</v>
       </c>
       <c r="G12" t="n">
-        <v>43611824</v>
+        <v>30223088</v>
       </c>
     </row>
     <row r="13">
@@ -756,22 +756,22 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="C13" t="n">
-        <v>160.9570695927</v>
+        <v>159.9768279503</v>
       </c>
       <c r="D13" t="n">
-        <v>163.799803966</v>
+        <v>161.1041246428</v>
       </c>
       <c r="E13" t="n">
-        <v>160.2708974879</v>
+        <v>158.6534991689</v>
       </c>
       <c r="F13" t="n">
-        <v>162.7705383301</v>
+        <v>159.0455932617</v>
       </c>
       <c r="G13" t="n">
-        <v>30128705</v>
+        <v>31472419</v>
       </c>
     </row>
     <row r="14">
@@ -781,22 +781,22 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45421</v>
+        <v>45425</v>
       </c>
       <c r="C14" t="n">
-        <v>162.6725156409</v>
+        <v>159.2416391829</v>
       </c>
       <c r="D14" t="n">
-        <v>163.4077032816</v>
+        <v>161.2511550488</v>
       </c>
       <c r="E14" t="n">
-        <v>158.3104052976</v>
+        <v>154.9285443621</v>
       </c>
       <c r="F14" t="n">
-        <v>158.7024993896</v>
+        <v>160.6139984131</v>
       </c>
       <c r="G14" t="n">
-        <v>30223088</v>
+        <v>36561003</v>
       </c>
     </row>
     <row r="15">
@@ -806,22 +806,22 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45422</v>
+        <v>45426</v>
       </c>
       <c r="C15" t="n">
-        <v>159.9768279503</v>
+        <v>160.8590570815</v>
       </c>
       <c r="D15" t="n">
-        <v>161.1041246428</v>
+        <v>163.2606669796</v>
       </c>
       <c r="E15" t="n">
-        <v>158.6534991689</v>
+        <v>160.2709010031</v>
       </c>
       <c r="F15" t="n">
-        <v>159.0455932617</v>
+        <v>161.6922607422</v>
       </c>
       <c r="G15" t="n">
-        <v>31472419</v>
+        <v>46261468</v>
       </c>
     </row>
     <row r="16">
@@ -831,22 +831,22 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="C16" t="n">
-        <v>159.2416391829</v>
+        <v>161.6922656587</v>
       </c>
       <c r="D16" t="n">
-        <v>161.2511550488</v>
+        <v>164.2409221326</v>
       </c>
       <c r="E16" t="n">
-        <v>154.9285443621</v>
+        <v>161.6922656587</v>
       </c>
       <c r="F16" t="n">
-        <v>160.6139984131</v>
+        <v>162.3294372559</v>
       </c>
       <c r="G16" t="n">
-        <v>36561003</v>
+        <v>29601304</v>
       </c>
     </row>
     <row r="17">
@@ -856,22 +856,22 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="C17" t="n">
-        <v>160.8590570815</v>
+        <v>163.9468484115</v>
       </c>
       <c r="D17" t="n">
-        <v>163.2606669796</v>
+        <v>164.6820360726</v>
       </c>
       <c r="E17" t="n">
-        <v>160.2709010031</v>
+        <v>159.0946128401</v>
       </c>
       <c r="F17" t="n">
-        <v>161.6922607422</v>
+        <v>162.6235046387</v>
       </c>
       <c r="G17" t="n">
-        <v>46261468</v>
+        <v>41126570</v>
       </c>
     </row>
     <row r="18">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="C18" t="n">
-        <v>161.6922656587</v>
+        <v>163.3096884525</v>
       </c>
       <c r="D18" t="n">
-        <v>164.2409221326</v>
+        <v>165.1231423386</v>
       </c>
       <c r="E18" t="n">
-        <v>161.6922656587</v>
+        <v>162.1823917539</v>
       </c>
       <c r="F18" t="n">
-        <v>162.3294372559</v>
+        <v>164.0448760986</v>
       </c>
       <c r="G18" t="n">
-        <v>29601304</v>
+        <v>39181277</v>
       </c>
     </row>
     <row r="19">
@@ -906,22 +906,22 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="C19" t="n">
-        <v>163.9468484115</v>
+        <v>165.1721617122</v>
       </c>
       <c r="D19" t="n">
-        <v>164.6820360726</v>
+        <v>171.7398351805</v>
       </c>
       <c r="E19" t="n">
-        <v>159.0946128401</v>
+        <v>164.6330211009</v>
       </c>
       <c r="F19" t="n">
-        <v>162.6235046387</v>
+        <v>170.9066314697</v>
       </c>
       <c r="G19" t="n">
-        <v>41126570</v>
+        <v>84833644</v>
       </c>
     </row>
     <row r="20">
@@ -931,22 +931,22 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="C20" t="n">
-        <v>163.3096884525</v>
+        <v>171.9848970899</v>
       </c>
       <c r="D20" t="n">
-        <v>165.1231423386</v>
+        <v>172.0339125921</v>
       </c>
       <c r="E20" t="n">
-        <v>162.1823917539</v>
+        <v>168.1129117353</v>
       </c>
       <c r="F20" t="n">
-        <v>164.0448760986</v>
+        <v>169.8773651123</v>
       </c>
       <c r="G20" t="n">
-        <v>39181277</v>
+        <v>42919832</v>
       </c>
     </row>
     <row r="21">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="C21" t="n">
-        <v>165.1721617122</v>
+        <v>169.6322951016</v>
       </c>
       <c r="D21" t="n">
-        <v>171.7398351805</v>
+        <v>172.3279830721</v>
       </c>
       <c r="E21" t="n">
-        <v>164.6330211009</v>
+        <v>167.1326541738</v>
       </c>
       <c r="F21" t="n">
-        <v>170.9066314697</v>
+        <v>172.0339050293</v>
       </c>
       <c r="G21" t="n">
-        <v>84833644</v>
+        <v>49377680</v>
       </c>
     </row>
     <row r="22">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="C22" t="n">
-        <v>171.9848970899</v>
+        <v>171.4947598144</v>
       </c>
       <c r="D22" t="n">
-        <v>172.0339125921</v>
+        <v>174.0434161735</v>
       </c>
       <c r="E22" t="n">
-        <v>168.1129117353</v>
+        <v>170.7105567072</v>
       </c>
       <c r="F22" t="n">
-        <v>169.8773651123</v>
+        <v>171.3967437744</v>
       </c>
       <c r="G22" t="n">
-        <v>42919832</v>
+        <v>38674485</v>
       </c>
     </row>
     <row r="23">
@@ -1006,22 +1006,22 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45435</v>
+        <v>45439</v>
       </c>
       <c r="C23" t="n">
-        <v>169.6322951016</v>
+        <v>174.1904524142</v>
       </c>
       <c r="D23" t="n">
-        <v>172.3279830721</v>
+        <v>174.1904524142</v>
       </c>
       <c r="E23" t="n">
-        <v>167.1326541738</v>
+        <v>171.396748401</v>
       </c>
       <c r="F23" t="n">
         <v>172.0339050293</v>
       </c>
       <c r="G23" t="n">
-        <v>49377680</v>
+        <v>30410585</v>
       </c>
     </row>
     <row r="24">
@@ -1031,22 +1031,22 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45436</v>
+        <v>45440</v>
       </c>
       <c r="C24" t="n">
-        <v>171.4947598144</v>
+        <v>172.4260052106</v>
       </c>
       <c r="D24" t="n">
-        <v>174.0434161735</v>
+        <v>173.9944115228</v>
       </c>
       <c r="E24" t="n">
-        <v>170.7105567072</v>
+        <v>170.024395198</v>
       </c>
       <c r="F24" t="n">
-        <v>171.3967437744</v>
+        <v>171.4457550049</v>
       </c>
       <c r="G24" t="n">
-        <v>38674485</v>
+        <v>39208456</v>
       </c>
     </row>
     <row r="25">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="C25" t="n">
-        <v>174.1904524142</v>
+        <v>171.2987188397</v>
       </c>
       <c r="D25" t="n">
-        <v>174.1904524142</v>
+        <v>172.5240315638</v>
       </c>
       <c r="E25" t="n">
-        <v>171.396748401</v>
+        <v>170.0734061155</v>
       </c>
       <c r="F25" t="n">
-        <v>172.0339050293</v>
+        <v>170.80859375</v>
       </c>
       <c r="G25" t="n">
-        <v>30410585</v>
+        <v>36575550</v>
       </c>
     </row>
     <row r="26">
@@ -1081,22 +1081,22 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="C26" t="n">
-        <v>172.4260052106</v>
+        <v>168.6030359182</v>
       </c>
       <c r="D26" t="n">
-        <v>173.9944115228</v>
+        <v>168.6030359182</v>
       </c>
       <c r="E26" t="n">
-        <v>170.024395198</v>
+        <v>160.1238775948</v>
       </c>
       <c r="F26" t="n">
-        <v>171.4457550049</v>
+        <v>160.9080657959</v>
       </c>
       <c r="G26" t="n">
-        <v>39208456</v>
+        <v>108813875</v>
       </c>
     </row>
     <row r="27">
@@ -1106,22 +1106,22 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="C27" t="n">
-        <v>171.2987188397</v>
+        <v>162.7705454241</v>
       </c>
       <c r="D27" t="n">
-        <v>172.5240315638</v>
+        <v>164.6330147836</v>
       </c>
       <c r="E27" t="n">
-        <v>170.0734061155</v>
+        <v>160.7610295631</v>
       </c>
       <c r="F27" t="n">
-        <v>170.80859375</v>
+        <v>163.8978271484</v>
       </c>
       <c r="G27" t="n">
-        <v>36575550</v>
+        <v>83713848</v>
       </c>
     </row>
     <row r="28">
@@ -1131,22 +1131,22 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45442</v>
+        <v>45446</v>
       </c>
       <c r="C28" t="n">
-        <v>168.6030359182</v>
+        <v>169.8283435707</v>
       </c>
       <c r="D28" t="n">
-        <v>168.6030359182</v>
+        <v>171.5437813845</v>
       </c>
       <c r="E28" t="n">
-        <v>160.1238775948</v>
+        <v>165.5152487645</v>
       </c>
       <c r="F28" t="n">
-        <v>160.9080657959</v>
+        <v>170.80859375</v>
       </c>
       <c r="G28" t="n">
-        <v>108813875</v>
+        <v>86397540</v>
       </c>
     </row>
     <row r="29">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45443</v>
+        <v>45447</v>
       </c>
       <c r="C29" t="n">
-        <v>162.7705454241</v>
+        <v>171.0536535321</v>
       </c>
       <c r="D29" t="n">
-        <v>164.6330147836</v>
+        <v>171.2006850736</v>
       </c>
       <c r="E29" t="n">
-        <v>160.7610295631</v>
+        <v>145.2240557407</v>
       </c>
       <c r="F29" t="n">
-        <v>163.8978271484</v>
+        <v>155.810760498</v>
       </c>
       <c r="G29" t="n">
-        <v>83713848</v>
+        <v>125042158</v>
       </c>
     </row>
     <row r="30">
@@ -1181,22 +1181,22 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45446</v>
+        <v>45448</v>
       </c>
       <c r="C30" t="n">
-        <v>169.8283435707</v>
+        <v>158.9475556048</v>
       </c>
       <c r="D30" t="n">
-        <v>171.5437813845</v>
+        <v>166.2504311774</v>
       </c>
       <c r="E30" t="n">
-        <v>165.5152487645</v>
+        <v>155.8597736198</v>
       </c>
       <c r="F30" t="n">
-        <v>170.80859375</v>
+        <v>165.8583221436</v>
       </c>
       <c r="G30" t="n">
-        <v>86397540</v>
+        <v>60098501</v>
       </c>
     </row>
     <row r="31">
@@ -1206,22 +1206,22 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45447</v>
+        <v>45449</v>
       </c>
       <c r="C31" t="n">
-        <v>171.0536535321</v>
+        <v>166.6425378847</v>
       </c>
       <c r="D31" t="n">
-        <v>171.2006850736</v>
+        <v>171.2497109406</v>
       </c>
       <c r="E31" t="n">
-        <v>145.2240557407</v>
+        <v>166.054381768</v>
       </c>
       <c r="F31" t="n">
-        <v>155.810760498</v>
+        <v>168.652053833</v>
       </c>
       <c r="G31" t="n">
-        <v>125042158</v>
+        <v>57920819</v>
       </c>
     </row>
     <row r="32">
@@ -1231,22 +1231,22 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45448</v>
+        <v>45450</v>
       </c>
       <c r="C32" t="n">
-        <v>158.9475556048</v>
+        <v>168.6030249761</v>
       </c>
       <c r="D32" t="n">
-        <v>166.2504311774</v>
+        <v>176.101932604</v>
       </c>
       <c r="E32" t="n">
-        <v>155.8597736198</v>
+        <v>167.4267277934</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8583221436</v>
+        <v>175.3667449951</v>
       </c>
       <c r="G32" t="n">
-        <v>60098501</v>
+        <v>84319867</v>
       </c>
     </row>
     <row r="33">
@@ -1256,22 +1256,22 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45449</v>
+        <v>45453</v>
       </c>
       <c r="C33" t="n">
-        <v>166.6425378847</v>
+        <v>176.6508869734</v>
       </c>
       <c r="D33" t="n">
-        <v>171.2497109406</v>
+        <v>178.5035591676</v>
       </c>
       <c r="E33" t="n">
-        <v>166.054381768</v>
+        <v>173.8571680493</v>
       </c>
       <c r="F33" t="n">
-        <v>168.652053833</v>
+        <v>176.7292938232</v>
       </c>
       <c r="G33" t="n">
-        <v>57920819</v>
+        <v>74286848</v>
       </c>
     </row>
     <row r="34">
@@ -1281,22 +1281,22 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="C34" t="n">
-        <v>168.6030249761</v>
+        <v>176.9351546071</v>
       </c>
       <c r="D34" t="n">
-        <v>176.101932604</v>
+        <v>180.1209676401</v>
       </c>
       <c r="E34" t="n">
-        <v>167.4267277934</v>
+        <v>176.9351546071</v>
       </c>
       <c r="F34" t="n">
-        <v>175.3667449951</v>
+        <v>177.7487640381</v>
       </c>
       <c r="G34" t="n">
-        <v>84319867</v>
+        <v>55555544</v>
       </c>
     </row>
     <row r="35">
@@ -1306,22 +1306,22 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="C35" t="n">
-        <v>176.6508869734</v>
+        <v>178.6505906365</v>
       </c>
       <c r="D35" t="n">
-        <v>178.5035591676</v>
+        <v>180.2385911002</v>
       </c>
       <c r="E35" t="n">
-        <v>173.8571680493</v>
+        <v>177.9154030207</v>
       </c>
       <c r="F35" t="n">
-        <v>176.7292938232</v>
+        <v>178.6309814453</v>
       </c>
       <c r="G35" t="n">
-        <v>74286848</v>
+        <v>33304643</v>
       </c>
     </row>
     <row r="36">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="C36" t="n">
-        <v>176.9351546071</v>
+        <v>179.7778743225</v>
       </c>
       <c r="D36" t="n">
-        <v>180.1209676401</v>
+        <v>180.4640614041</v>
       </c>
       <c r="E36" t="n">
-        <v>176.9351546071</v>
+        <v>176.9449519432</v>
       </c>
       <c r="F36" t="n">
-        <v>177.7487640381</v>
+        <v>178.9544677734</v>
       </c>
       <c r="G36" t="n">
-        <v>55555544</v>
+        <v>36669164</v>
       </c>
     </row>
     <row r="37">
@@ -1356,22 +1356,22 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="C37" t="n">
-        <v>178.6505906365</v>
+        <v>179.3367746029</v>
       </c>
       <c r="D37" t="n">
-        <v>180.2385911002</v>
+        <v>179.875915215</v>
       </c>
       <c r="E37" t="n">
-        <v>177.9154030207</v>
+        <v>177.8173837718</v>
       </c>
       <c r="F37" t="n">
-        <v>178.6309814453</v>
+        <v>179.5328216553</v>
       </c>
       <c r="G37" t="n">
-        <v>33304643</v>
+        <v>28509237</v>
       </c>
     </row>
     <row r="38">
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45456</v>
+        <v>45461</v>
       </c>
       <c r="C38" t="n">
-        <v>179.7778743225</v>
+        <v>180.1699859736</v>
       </c>
       <c r="D38" t="n">
-        <v>180.4640614041</v>
+        <v>180.9541891087</v>
       </c>
       <c r="E38" t="n">
-        <v>176.9449519432</v>
+        <v>177.0331883909</v>
       </c>
       <c r="F38" t="n">
-        <v>178.9544677734</v>
+        <v>177.5429077148</v>
       </c>
       <c r="G38" t="n">
-        <v>36669164</v>
+        <v>35032118</v>
       </c>
     </row>
     <row r="39">
@@ -1406,22 +1406,22 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45457</v>
+        <v>45462</v>
       </c>
       <c r="C39" t="n">
-        <v>179.3367746029</v>
+        <v>178.8466461948</v>
       </c>
       <c r="D39" t="n">
-        <v>179.875915215</v>
+        <v>178.885864579</v>
       </c>
       <c r="E39" t="n">
-        <v>177.8173837718</v>
+        <v>175.7686611617</v>
       </c>
       <c r="F39" t="n">
-        <v>179.5328216553</v>
+        <v>176.4646453857</v>
       </c>
       <c r="G39" t="n">
-        <v>28509237</v>
+        <v>27476795</v>
       </c>
     </row>
     <row r="40">
@@ -1431,22 +1431,22 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="C40" t="n">
-        <v>180.1699859736</v>
+        <v>178.0134449682</v>
       </c>
       <c r="D40" t="n">
-        <v>180.9541891087</v>
+        <v>179.3367737835</v>
       </c>
       <c r="E40" t="n">
-        <v>177.0331883909</v>
+        <v>175.8274762201</v>
       </c>
       <c r="F40" t="n">
-        <v>177.5429077148</v>
+        <v>178.6800079346</v>
       </c>
       <c r="G40" t="n">
-        <v>35032118</v>
+        <v>38837494</v>
       </c>
     </row>
     <row r="41">
@@ -1456,22 +1456,22 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45462</v>
+        <v>45464</v>
       </c>
       <c r="C41" t="n">
-        <v>178.8466461948</v>
+        <v>179.3999938965</v>
       </c>
       <c r="D41" t="n">
-        <v>178.885864579</v>
+        <v>180.8999938965</v>
       </c>
       <c r="E41" t="n">
-        <v>175.7686611617</v>
+        <v>178.1799926758</v>
       </c>
       <c r="F41" t="n">
-        <v>176.4646453857</v>
+        <v>179.9400024414</v>
       </c>
       <c r="G41" t="n">
-        <v>27476795</v>
+        <v>65494855</v>
       </c>
     </row>
     <row r="42">
@@ -1481,22 +1481,22 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45463</v>
+        <v>45467</v>
       </c>
       <c r="C42" t="n">
-        <v>178.0134449682</v>
+        <v>177.4400024414</v>
       </c>
       <c r="D42" t="n">
-        <v>179.3367737835</v>
+        <v>178.9499969482</v>
       </c>
       <c r="E42" t="n">
-        <v>175.8274762201</v>
+        <v>175.1000061035</v>
       </c>
       <c r="F42" t="n">
-        <v>178.6800079346</v>
+        <v>177.9600067139</v>
       </c>
       <c r="G42" t="n">
-        <v>38837494</v>
+        <v>47597307</v>
       </c>
     </row>
     <row r="43">
@@ -1506,22 +1506,22 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45464</v>
+        <v>45468</v>
       </c>
       <c r="C43" t="n">
-        <v>179.3999938965</v>
+        <v>177.9900054932</v>
       </c>
       <c r="D43" t="n">
-        <v>180.8999938965</v>
+        <v>179</v>
       </c>
       <c r="E43" t="n">
-        <v>178.1799926758</v>
+        <v>175.25</v>
       </c>
       <c r="F43" t="n">
-        <v>179.9400024414</v>
+        <v>175.6799926758</v>
       </c>
       <c r="G43" t="n">
-        <v>65494855</v>
+        <v>30599989</v>
       </c>
     </row>
     <row r="44">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45467</v>
+        <v>45469</v>
       </c>
       <c r="C44" t="n">
-        <v>177.4400024414</v>
+        <v>175.6799926758</v>
       </c>
       <c r="D44" t="n">
-        <v>178.9499969482</v>
+        <v>176</v>
       </c>
       <c r="E44" t="n">
-        <v>175.1000061035</v>
+        <v>171.8399963379</v>
       </c>
       <c r="F44" t="n">
-        <v>177.9600067139</v>
+        <v>172.5599975586</v>
       </c>
       <c r="G44" t="n">
-        <v>47597307</v>
+        <v>44006436</v>
       </c>
     </row>
     <row r="45">
@@ -1556,22 +1556,22 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45468</v>
+        <v>45470</v>
       </c>
       <c r="C45" t="n">
-        <v>177.9900054932</v>
+        <v>172.5599975586</v>
       </c>
       <c r="D45" t="n">
-        <v>179</v>
+        <v>174.9499969482</v>
       </c>
       <c r="E45" t="n">
-        <v>175.25</v>
+        <v>171.8000030518</v>
       </c>
       <c r="F45" t="n">
-        <v>175.6799926758</v>
+        <v>174.1600036621</v>
       </c>
       <c r="G45" t="n">
-        <v>30599989</v>
+        <v>49767976</v>
       </c>
     </row>
     <row r="46">
@@ -1581,22 +1581,22 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45469</v>
+        <v>45471</v>
       </c>
       <c r="C46" t="n">
-        <v>175.6799926758</v>
+        <v>174.1699981689</v>
       </c>
       <c r="D46" t="n">
-        <v>176</v>
+        <v>177.1000061035</v>
       </c>
       <c r="E46" t="n">
-        <v>171.8399963379</v>
+        <v>173.5700073242</v>
       </c>
       <c r="F46" t="n">
-        <v>172.5599975586</v>
+        <v>174.0099945068</v>
       </c>
       <c r="G46" t="n">
-        <v>44006436</v>
+        <v>37521949</v>
       </c>
     </row>
     <row r="47">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45470</v>
+        <v>45474</v>
       </c>
       <c r="C47" t="n">
-        <v>172.5599975586</v>
+        <v>174.5</v>
       </c>
       <c r="D47" t="n">
-        <v>174.9499969482</v>
+        <v>175.9900054932</v>
       </c>
       <c r="E47" t="n">
-        <v>171.8000030518</v>
+        <v>173.5099945068</v>
       </c>
       <c r="F47" t="n">
-        <v>174.1600036621</v>
+        <v>174.0700073242</v>
       </c>
       <c r="G47" t="n">
-        <v>49767976</v>
+        <v>27807688</v>
       </c>
     </row>
     <row r="48">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45471</v>
+        <v>45475</v>
       </c>
       <c r="C48" t="n">
-        <v>174.1699981689</v>
+        <v>174.4700012207</v>
       </c>
       <c r="D48" t="n">
-        <v>177.1000061035</v>
+        <v>175.75</v>
       </c>
       <c r="E48" t="n">
-        <v>173.5700073242</v>
+        <v>173.6000061035</v>
       </c>
       <c r="F48" t="n">
-        <v>174.0099945068</v>
+        <v>174.5399932861</v>
       </c>
       <c r="G48" t="n">
-        <v>37521949</v>
+        <v>33359495</v>
       </c>
     </row>
     <row r="49">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="C49" t="n">
-        <v>174.5</v>
+        <v>174.5399932861</v>
       </c>
       <c r="D49" t="n">
-        <v>175.9900054932</v>
+        <v>176.8800048828</v>
       </c>
       <c r="E49" t="n">
-        <v>173.5099945068</v>
+        <v>174.3999938965</v>
       </c>
       <c r="F49" t="n">
-        <v>174.0700073242</v>
+        <v>176.3699951172</v>
       </c>
       <c r="G49" t="n">
-        <v>27807688</v>
+        <v>29090492</v>
       </c>
     </row>
     <row r="50">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45475</v>
+        <v>45477</v>
       </c>
       <c r="C50" t="n">
-        <v>174.4700012207</v>
+        <v>177</v>
       </c>
       <c r="D50" t="n">
-        <v>175.75</v>
+        <v>178.1900024414</v>
       </c>
       <c r="E50" t="n">
-        <v>173.6000061035</v>
+        <v>175.8200073242</v>
       </c>
       <c r="F50" t="n">
-        <v>174.5399932861</v>
+        <v>176.2899932861</v>
       </c>
       <c r="G50" t="n">
-        <v>33359495</v>
+        <v>29504744</v>
       </c>
     </row>
     <row r="51">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45476</v>
+        <v>45478</v>
       </c>
       <c r="C51" t="n">
-        <v>174.5399932861</v>
+        <v>176.1999969482</v>
       </c>
       <c r="D51" t="n">
-        <v>176.8800048828</v>
+        <v>176.1999969482</v>
       </c>
       <c r="E51" t="n">
-        <v>174.3999938965</v>
+        <v>173.3999938965</v>
       </c>
       <c r="F51" t="n">
-        <v>176.3699951172</v>
+        <v>174.7100067139</v>
       </c>
       <c r="G51" t="n">
-        <v>29090492</v>
+        <v>38123217</v>
       </c>
     </row>
     <row r="52">
@@ -1731,22 +1731,22 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45477</v>
+        <v>45481</v>
       </c>
       <c r="C52" t="n">
-        <v>177</v>
+        <v>174.6000061035</v>
       </c>
       <c r="D52" t="n">
-        <v>178.1900024414</v>
+        <v>175.4700012207</v>
       </c>
       <c r="E52" t="n">
-        <v>175.8200073242</v>
+        <v>172.0899963379</v>
       </c>
       <c r="F52" t="n">
-        <v>176.2899932861</v>
+        <v>172.2799987793</v>
       </c>
       <c r="G52" t="n">
-        <v>29504744</v>
+        <v>31479861</v>
       </c>
     </row>
     <row r="53">
@@ -1756,22 +1756,22 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45478</v>
+        <v>45482</v>
       </c>
       <c r="C53" t="n">
-        <v>176.1999969482</v>
+        <v>173.6000061035</v>
       </c>
       <c r="D53" t="n">
-        <v>176.1999969482</v>
+        <v>173.6999969482</v>
       </c>
       <c r="E53" t="n">
-        <v>173.3999938965</v>
+        <v>171.5099945068</v>
       </c>
       <c r="F53" t="n">
-        <v>174.7100067139</v>
+        <v>171.8000030518</v>
       </c>
       <c r="G53" t="n">
-        <v>38123217</v>
+        <v>25127904</v>
       </c>
     </row>
     <row r="54">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="C54" t="n">
-        <v>174.6000061035</v>
+        <v>172.5</v>
       </c>
       <c r="D54" t="n">
-        <v>175.4700012207</v>
+        <v>172.8899993896</v>
       </c>
       <c r="E54" t="n">
-        <v>172.0899963379</v>
+        <v>167.0200042725</v>
       </c>
       <c r="F54" t="n">
-        <v>172.2799987793</v>
+        <v>167.9799957275</v>
       </c>
       <c r="G54" t="n">
-        <v>31479861</v>
+        <v>41525591</v>
       </c>
     </row>
     <row r="55">
@@ -1806,22 +1806,22 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45482</v>
+        <v>45484</v>
       </c>
       <c r="C55" t="n">
-        <v>173.6000061035</v>
+        <v>170</v>
       </c>
       <c r="D55" t="n">
-        <v>173.6999969482</v>
+        <v>170.9499969482</v>
       </c>
       <c r="E55" t="n">
-        <v>171.5099945068</v>
+        <v>168.6699981689</v>
       </c>
       <c r="F55" t="n">
-        <v>171.8000030518</v>
+        <v>168.9199981689</v>
       </c>
       <c r="G55" t="n">
-        <v>25127904</v>
+        <v>33987236</v>
       </c>
     </row>
     <row r="56">
@@ -1831,22 +1831,22 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45483</v>
+        <v>45485</v>
       </c>
       <c r="C56" t="n">
-        <v>172.5</v>
+        <v>170.1999969482</v>
       </c>
       <c r="D56" t="n">
-        <v>172.8899993896</v>
+        <v>170.3899993896</v>
       </c>
       <c r="E56" t="n">
-        <v>167.0200042725</v>
+        <v>168.0099945068</v>
       </c>
       <c r="F56" t="n">
-        <v>167.9799957275</v>
+        <v>168.6900024414</v>
       </c>
       <c r="G56" t="n">
-        <v>41525591</v>
+        <v>33311402</v>
       </c>
     </row>
     <row r="57">
@@ -1856,22 +1856,22 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45484</v>
+        <v>45488</v>
       </c>
       <c r="C57" t="n">
-        <v>170</v>
+        <v>168.6900024414</v>
       </c>
       <c r="D57" t="n">
-        <v>170.9499969482</v>
+        <v>168.9900054932</v>
       </c>
       <c r="E57" t="n">
-        <v>168.6699981689</v>
+        <v>165.8000030518</v>
       </c>
       <c r="F57" t="n">
-        <v>168.9199981689</v>
+        <v>166.7599945068</v>
       </c>
       <c r="G57" t="n">
-        <v>33987236</v>
+        <v>32635187</v>
       </c>
     </row>
     <row r="58">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45485</v>
+        <v>45489</v>
       </c>
       <c r="C58" t="n">
-        <v>170.1999969482</v>
+        <v>167.8000030518</v>
       </c>
       <c r="D58" t="n">
-        <v>170.3899993896</v>
+        <v>169.8200073242</v>
       </c>
       <c r="E58" t="n">
-        <v>168.0099945068</v>
+        <v>166.6999969482</v>
       </c>
       <c r="F58" t="n">
-        <v>168.6900024414</v>
+        <v>167.0700073242</v>
       </c>
       <c r="G58" t="n">
-        <v>33311402</v>
+        <v>26505901</v>
       </c>
     </row>
     <row r="59">
@@ -1906,22 +1906,22 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="C59" t="n">
-        <v>168.6900024414</v>
+        <v>167.6100006104</v>
       </c>
       <c r="D59" t="n">
-        <v>168.9900054932</v>
+        <v>167.6100006104</v>
       </c>
       <c r="E59" t="n">
-        <v>165.8000030518</v>
+        <v>164.4400024414</v>
       </c>
       <c r="F59" t="n">
-        <v>166.7599945068</v>
+        <v>166.3600006104</v>
       </c>
       <c r="G59" t="n">
-        <v>32635187</v>
+        <v>36568852</v>
       </c>
     </row>
     <row r="60">
@@ -1931,22 +1931,22 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45489</v>
+        <v>45492</v>
       </c>
       <c r="C60" t="n">
-        <v>167.8000030518</v>
+        <v>166</v>
       </c>
       <c r="D60" t="n">
-        <v>169.8200073242</v>
+        <v>166.0899963379</v>
       </c>
       <c r="E60" t="n">
-        <v>166.6999969482</v>
+        <v>157.1999969482</v>
       </c>
       <c r="F60" t="n">
-        <v>167.0700073242</v>
+        <v>157.7700042725</v>
       </c>
       <c r="G60" t="n">
-        <v>26505901</v>
+        <v>77987514</v>
       </c>
     </row>
     <row r="61">
@@ -1956,22 +1956,22 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45491</v>
+        <v>45495</v>
       </c>
       <c r="C61" t="n">
-        <v>167.6100006104</v>
+        <v>158.3999938965</v>
       </c>
       <c r="D61" t="n">
-        <v>167.6100006104</v>
+        <v>160.6999969482</v>
       </c>
       <c r="E61" t="n">
-        <v>164.4400024414</v>
+        <v>156.4100036621</v>
       </c>
       <c r="F61" t="n">
-        <v>166.3600006104</v>
+        <v>160.3200073242</v>
       </c>
       <c r="G61" t="n">
-        <v>36568852</v>
+        <v>40353690</v>
       </c>
     </row>
     <row r="62">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45492</v>
+        <v>45496</v>
       </c>
       <c r="C62" t="n">
-        <v>166</v>
+        <v>161.6000061035</v>
       </c>
       <c r="D62" t="n">
-        <v>166.0899963379</v>
+        <v>161.9700012207</v>
       </c>
       <c r="E62" t="n">
-        <v>157.1999969482</v>
+        <v>155</v>
       </c>
       <c r="F62" t="n">
-        <v>157.7700042725</v>
+        <v>160.0200042725</v>
       </c>
       <c r="G62" t="n">
-        <v>77987514</v>
+        <v>37077411</v>
       </c>
     </row>
     <row r="63">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="C63" t="n">
-        <v>158.3999938965</v>
+        <v>160.0200042725</v>
       </c>
       <c r="D63" t="n">
-        <v>160.6999969482</v>
+        <v>162.0200042725</v>
       </c>
       <c r="E63" t="n">
-        <v>156.4100036621</v>
+        <v>159.1900024414</v>
       </c>
       <c r="F63" t="n">
-        <v>160.3200073242</v>
+        <v>160.3099975586</v>
       </c>
       <c r="G63" t="n">
-        <v>40353690</v>
+        <v>28086566</v>
       </c>
     </row>
     <row r="64">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45496</v>
+        <v>45498</v>
       </c>
       <c r="C64" t="n">
-        <v>161.6000061035</v>
+        <v>158.5</v>
       </c>
       <c r="D64" t="n">
-        <v>161.9700012207</v>
+        <v>158.5</v>
       </c>
       <c r="E64" t="n">
-        <v>155</v>
+        <v>156.8999938965</v>
       </c>
       <c r="F64" t="n">
-        <v>160.0200042725</v>
+        <v>157.3899993896</v>
       </c>
       <c r="G64" t="n">
-        <v>37077411</v>
+        <v>45155876</v>
       </c>
     </row>
     <row r="65">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45497</v>
+        <v>45499</v>
       </c>
       <c r="C65" t="n">
-        <v>160.0200042725</v>
+        <v>158.75</v>
       </c>
       <c r="D65" t="n">
-        <v>162.0200042725</v>
+        <v>162.9499969482</v>
       </c>
       <c r="E65" t="n">
-        <v>159.1900024414</v>
+        <v>158.2100067139</v>
       </c>
       <c r="F65" t="n">
-        <v>160.3099975586</v>
+        <v>162.5500030518</v>
       </c>
       <c r="G65" t="n">
-        <v>28086566</v>
+        <v>45642032</v>
       </c>
     </row>
     <row r="66">
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45498</v>
+        <v>45502</v>
       </c>
       <c r="C66" t="n">
-        <v>158.5</v>
+        <v>164.6999969482</v>
       </c>
       <c r="D66" t="n">
-        <v>158.5</v>
+        <v>164.6999969482</v>
       </c>
       <c r="E66" t="n">
-        <v>156.8999938965</v>
+        <v>162.3300018311</v>
       </c>
       <c r="F66" t="n">
-        <v>157.3899993896</v>
+        <v>162.8699951172</v>
       </c>
       <c r="G66" t="n">
-        <v>45155876</v>
+        <v>31754833</v>
       </c>
     </row>
     <row r="67">
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45499</v>
+        <v>45503</v>
       </c>
       <c r="C67" t="n">
-        <v>158.75</v>
+        <v>162.8999938965</v>
       </c>
       <c r="D67" t="n">
-        <v>162.9499969482</v>
+        <v>165.3000030518</v>
       </c>
       <c r="E67" t="n">
-        <v>158.2100067139</v>
+        <v>161.3099975586</v>
       </c>
       <c r="F67" t="n">
-        <v>162.5500030518</v>
+        <v>164.0700073242</v>
       </c>
       <c r="G67" t="n">
-        <v>45642032</v>
+        <v>42824600</v>
       </c>
     </row>
     <row r="68">
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45502</v>
+        <v>45504</v>
       </c>
       <c r="C68" t="n">
-        <v>164.6999969482</v>
+        <v>166.2899932861</v>
       </c>
       <c r="D68" t="n">
-        <v>164.6999969482</v>
+        <v>166.5</v>
       </c>
       <c r="E68" t="n">
-        <v>162.3300018311</v>
+        <v>163.5500030518</v>
       </c>
       <c r="F68" t="n">
-        <v>162.8699951172</v>
+        <v>165.3300018311</v>
       </c>
       <c r="G68" t="n">
-        <v>31754833</v>
+        <v>52769925</v>
       </c>
     </row>
     <row r="69">
@@ -2156,22 +2156,22 @@
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45503</v>
+        <v>45505</v>
       </c>
       <c r="C69" t="n">
-        <v>162.8999938965</v>
+        <v>168.1999969482</v>
       </c>
       <c r="D69" t="n">
-        <v>165.3000030518</v>
+        <v>168.9499969482</v>
       </c>
       <c r="E69" t="n">
-        <v>161.3099975586</v>
+        <v>160.8999938965</v>
       </c>
       <c r="F69" t="n">
-        <v>164.0700073242</v>
+        <v>163.0599975586</v>
       </c>
       <c r="G69" t="n">
-        <v>42824600</v>
+        <v>118341338</v>
       </c>
     </row>
     <row r="70">
@@ -2181,22 +2181,22 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45504</v>
+        <v>45506</v>
       </c>
       <c r="C70" t="n">
-        <v>166.2899932861</v>
+        <v>161</v>
       </c>
       <c r="D70" t="n">
-        <v>166.5</v>
+        <v>161.1900024414</v>
       </c>
       <c r="E70" t="n">
-        <v>163.5500030518</v>
+        <v>154.7200012207</v>
       </c>
       <c r="F70" t="n">
-        <v>165.3300018311</v>
+        <v>158.2200012207</v>
       </c>
       <c r="G70" t="n">
-        <v>52769925</v>
+        <v>72427529</v>
       </c>
     </row>
     <row r="71">
@@ -2206,22 +2206,22 @@
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45505</v>
+        <v>45509</v>
       </c>
       <c r="C71" t="n">
-        <v>168.1999969482</v>
+        <v>153.6600036621</v>
       </c>
       <c r="D71" t="n">
-        <v>168.9499969482</v>
+        <v>154</v>
       </c>
       <c r="E71" t="n">
-        <v>160.8999938965</v>
+        <v>149</v>
       </c>
       <c r="F71" t="n">
-        <v>163.0599975586</v>
+        <v>149.8200073242</v>
       </c>
       <c r="G71" t="n">
-        <v>118341338</v>
+        <v>102883971</v>
       </c>
     </row>
     <row r="72">
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45506</v>
+        <v>45510</v>
       </c>
       <c r="C72" t="n">
-        <v>161</v>
+        <v>151.2100067139</v>
       </c>
       <c r="D72" t="n">
-        <v>161.1900024414</v>
+        <v>153.8000030518</v>
       </c>
       <c r="E72" t="n">
-        <v>154.7200012207</v>
+        <v>149.6100006104</v>
       </c>
       <c r="F72" t="n">
-        <v>158.2200012207</v>
+        <v>150.3200073242</v>
       </c>
       <c r="G72" t="n">
-        <v>72427529</v>
+        <v>53507102</v>
       </c>
     </row>
     <row r="73">
@@ -2256,22 +2256,22 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45509</v>
+        <v>45511</v>
       </c>
       <c r="C73" t="n">
-        <v>153.6600036621</v>
+        <v>153.6999969482</v>
       </c>
       <c r="D73" t="n">
-        <v>154</v>
+        <v>154.3000030518</v>
       </c>
       <c r="E73" t="n">
-        <v>149</v>
+        <v>151.8999938965</v>
       </c>
       <c r="F73" t="n">
-        <v>149.8200073242</v>
+        <v>153.8600006104</v>
       </c>
       <c r="G73" t="n">
-        <v>102883971</v>
+        <v>32029697</v>
       </c>
     </row>
     <row r="74">
@@ -2281,22 +2281,22 @@
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45510</v>
+        <v>45512</v>
       </c>
       <c r="C74" t="n">
-        <v>151.2100067139</v>
+        <v>153.3999938965</v>
       </c>
       <c r="D74" t="n">
-        <v>153.8000030518</v>
+        <v>153.4400024414</v>
       </c>
       <c r="E74" t="n">
-        <v>149.6100006104</v>
+        <v>150</v>
       </c>
       <c r="F74" t="n">
-        <v>150.3200073242</v>
+        <v>150.2799987793</v>
       </c>
       <c r="G74" t="n">
-        <v>53507102</v>
+        <v>51858615</v>
       </c>
     </row>
     <row r="75">
@@ -2306,22 +2306,22 @@
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45511</v>
+        <v>45513</v>
       </c>
       <c r="C75" t="n">
-        <v>153.6999969482</v>
+        <v>153</v>
       </c>
       <c r="D75" t="n">
-        <v>154.3000030518</v>
+        <v>153</v>
       </c>
       <c r="E75" t="n">
-        <v>151.8999938965</v>
+        <v>151.25</v>
       </c>
       <c r="F75" t="n">
-        <v>153.8600006104</v>
+        <v>151.8099975586</v>
       </c>
       <c r="G75" t="n">
-        <v>32029697</v>
+        <v>23290101</v>
       </c>
     </row>
     <row r="76">
@@ -2331,22 +2331,22 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="C76" t="n">
+        <v>151</v>
+      </c>
+      <c r="D76" t="n">
         <v>153.3999938965</v>
       </c>
-      <c r="D76" t="n">
-        <v>153.4400024414</v>
-      </c>
       <c r="E76" t="n">
-        <v>150</v>
+        <v>149.8800048828</v>
       </c>
       <c r="F76" t="n">
-        <v>150.2799987793</v>
+        <v>152.0599975586</v>
       </c>
       <c r="G76" t="n">
-        <v>51858615</v>
+        <v>30550334</v>
       </c>
     </row>
     <row r="77">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="C77" t="n">
-        <v>153</v>
+        <v>152.1000061035</v>
       </c>
       <c r="D77" t="n">
-        <v>153</v>
+        <v>152.9499969482</v>
       </c>
       <c r="E77" t="n">
-        <v>151.25</v>
+        <v>148.5</v>
       </c>
       <c r="F77" t="n">
-        <v>151.8099975586</v>
+        <v>148.8800048828</v>
       </c>
       <c r="G77" t="n">
-        <v>23290101</v>
+        <v>29396493</v>
       </c>
     </row>
     <row r="78">
@@ -2381,22 +2381,22 @@
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45516</v>
+        <v>45518</v>
       </c>
       <c r="C78" t="n">
-        <v>151</v>
+        <v>149.8999938965</v>
       </c>
       <c r="D78" t="n">
-        <v>153.3999938965</v>
+        <v>149.8999938965</v>
       </c>
       <c r="E78" t="n">
-        <v>149.8800048828</v>
+        <v>142.3500061035</v>
       </c>
       <c r="F78" t="n">
-        <v>152.0599975586</v>
+        <v>146.1699981689</v>
       </c>
       <c r="G78" t="n">
-        <v>30550334</v>
+        <v>97911180</v>
       </c>
     </row>
     <row r="79">
@@ -2406,22 +2406,22 @@
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="C79" t="n">
-        <v>152.1000061035</v>
+        <v>148</v>
       </c>
       <c r="D79" t="n">
-        <v>152.9499969482</v>
+        <v>150</v>
       </c>
       <c r="E79" t="n">
-        <v>148.5</v>
+        <v>146.4600067139</v>
       </c>
       <c r="F79" t="n">
-        <v>148.8800048828</v>
+        <v>149.5200042725</v>
       </c>
       <c r="G79" t="n">
-        <v>29396493</v>
+        <v>54131721</v>
       </c>
     </row>
     <row r="80">
@@ -2431,22 +2431,22 @@
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45518</v>
+        <v>45523</v>
       </c>
       <c r="C80" t="n">
-        <v>149.8999938965</v>
+        <v>150.8500061035</v>
       </c>
       <c r="D80" t="n">
-        <v>149.8999938965</v>
+        <v>154.3000030518</v>
       </c>
       <c r="E80" t="n">
-        <v>142.3500061035</v>
+        <v>150.3899993896</v>
       </c>
       <c r="F80" t="n">
-        <v>146.1699981689</v>
+        <v>153.9600067139</v>
       </c>
       <c r="G80" t="n">
-        <v>97911180</v>
+        <v>62889770</v>
       </c>
     </row>
     <row r="81">
@@ -2456,22 +2456,22 @@
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45520</v>
+        <v>45524</v>
       </c>
       <c r="C81" t="n">
-        <v>148</v>
+        <v>155.6999969482</v>
       </c>
       <c r="D81" t="n">
-        <v>150</v>
+        <v>155.6999969482</v>
       </c>
       <c r="E81" t="n">
-        <v>146.4600067139</v>
+        <v>152.8000030518</v>
       </c>
       <c r="F81" t="n">
-        <v>149.5200042725</v>
+        <v>153.9299926758</v>
       </c>
       <c r="G81" t="n">
-        <v>54131721</v>
+        <v>37559016</v>
       </c>
     </row>
     <row r="82">
@@ -2481,22 +2481,22 @@
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45523</v>
+        <v>45525</v>
       </c>
       <c r="C82" t="n">
-        <v>150.8500061035</v>
+        <v>153</v>
       </c>
       <c r="D82" t="n">
-        <v>154.3000030518</v>
+        <v>154.1799926758</v>
       </c>
       <c r="E82" t="n">
-        <v>150.3899993896</v>
+        <v>151.7700042725</v>
       </c>
       <c r="F82" t="n">
-        <v>153.9600067139</v>
+        <v>151.9199981689</v>
       </c>
       <c r="G82" t="n">
-        <v>62889770</v>
+        <v>49749381</v>
       </c>
     </row>
     <row r="83">
@@ -2506,22 +2506,22 @@
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45524</v>
+        <v>45526</v>
       </c>
       <c r="C83" t="n">
-        <v>155.6999969482</v>
+        <v>152.5099945068</v>
       </c>
       <c r="D83" t="n">
-        <v>155.6999969482</v>
+        <v>154.3500061035</v>
       </c>
       <c r="E83" t="n">
-        <v>152.8000030518</v>
+        <v>152.5099945068</v>
       </c>
       <c r="F83" t="n">
-        <v>153.9299926758</v>
+        <v>154.1399993896</v>
       </c>
       <c r="G83" t="n">
-        <v>37559016</v>
+        <v>36719176</v>
       </c>
     </row>
     <row r="84">
@@ -2531,22 +2531,22 @@
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45525</v>
+        <v>45527</v>
       </c>
       <c r="C84" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D84" t="n">
-        <v>154.1799926758</v>
+        <v>154.3899993896</v>
       </c>
       <c r="E84" t="n">
-        <v>151.7700042725</v>
+        <v>152.5500030518</v>
       </c>
       <c r="F84" t="n">
-        <v>151.9199981689</v>
+        <v>154.1999969482</v>
       </c>
       <c r="G84" t="n">
-        <v>49749381</v>
+        <v>31490857</v>
       </c>
     </row>
     <row r="85">
@@ -2556,22 +2556,22 @@
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45526</v>
+        <v>45530</v>
       </c>
       <c r="C85" t="n">
-        <v>152.5099945068</v>
+        <v>154.6100006104</v>
       </c>
       <c r="D85" t="n">
-        <v>154.3500061035</v>
+        <v>156.3999938965</v>
       </c>
       <c r="E85" t="n">
-        <v>152.5099945068</v>
+        <v>153.6999969482</v>
       </c>
       <c r="F85" t="n">
-        <v>154.1399993896</v>
+        <v>155.6999969482</v>
       </c>
       <c r="G85" t="n">
-        <v>36719176</v>
+        <v>32497603</v>
       </c>
     </row>
     <row r="86">
@@ -2581,22 +2581,22 @@
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45527</v>
+        <v>45531</v>
       </c>
       <c r="C86" t="n">
-        <v>154</v>
+        <v>155.8000030518</v>
       </c>
       <c r="D86" t="n">
-        <v>154.3899993896</v>
+        <v>156.5</v>
       </c>
       <c r="E86" t="n">
-        <v>152.5500030518</v>
+        <v>154.6000061035</v>
       </c>
       <c r="F86" t="n">
-        <v>154.1999969482</v>
+        <v>154.6999969482</v>
       </c>
       <c r="G86" t="n">
-        <v>31490857</v>
+        <v>24523684</v>
       </c>
     </row>
     <row r="87">
@@ -2606,22 +2606,22 @@
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45530</v>
+        <v>45532</v>
       </c>
       <c r="C87" t="n">
-        <v>154.6100006104</v>
+        <v>154.6999969482</v>
       </c>
       <c r="D87" t="n">
-        <v>156.3999938965</v>
+        <v>155</v>
       </c>
       <c r="E87" t="n">
+        <v>153.0500030518</v>
+      </c>
+      <c r="F87" t="n">
         <v>153.6999969482</v>
       </c>
-      <c r="F87" t="n">
-        <v>155.6999969482</v>
-      </c>
       <c r="G87" t="n">
-        <v>32497603</v>
+        <v>25195197</v>
       </c>
     </row>
     <row r="88">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45531</v>
+        <v>45533</v>
       </c>
       <c r="C88" t="n">
-        <v>155.8000030518</v>
+        <v>153.2100067139</v>
       </c>
       <c r="D88" t="n">
-        <v>156.5</v>
+        <v>153.5599975586</v>
       </c>
       <c r="E88" t="n">
-        <v>154.6000061035</v>
+        <v>151.1999969482</v>
       </c>
       <c r="F88" t="n">
-        <v>154.6999969482</v>
+        <v>152.9700012207</v>
       </c>
       <c r="G88" t="n">
-        <v>24523684</v>
+        <v>44452983</v>
       </c>
     </row>
     <row r="89">
@@ -2656,22 +2656,22 @@
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45532</v>
+        <v>45534</v>
       </c>
       <c r="C89" t="n">
-        <v>154.6999969482</v>
+        <v>153</v>
       </c>
       <c r="D89" t="n">
-        <v>155</v>
+        <v>155.25</v>
       </c>
       <c r="E89" t="n">
-        <v>153.0500030518</v>
+        <v>152.4700012207</v>
       </c>
       <c r="F89" t="n">
-        <v>153.6999969482</v>
+        <v>152.7599945068</v>
       </c>
       <c r="G89" t="n">
-        <v>25195197</v>
+        <v>55134023</v>
       </c>
     </row>
     <row r="90">
@@ -2681,22 +2681,22 @@
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45533</v>
+        <v>45537</v>
       </c>
       <c r="C90" t="n">
-        <v>153.2100067139</v>
+        <v>153.8999938965</v>
       </c>
       <c r="D90" t="n">
-        <v>153.5599975586</v>
+        <v>153.8999938965</v>
       </c>
       <c r="E90" t="n">
-        <v>151.1999969482</v>
+        <v>152.1399993896</v>
       </c>
       <c r="F90" t="n">
-        <v>152.9700012207</v>
+        <v>152.8800048828</v>
       </c>
       <c r="G90" t="n">
-        <v>44452983</v>
+        <v>19200143</v>
       </c>
     </row>
     <row r="91">
@@ -2706,22 +2706,22 @@
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45534</v>
+        <v>45538</v>
       </c>
       <c r="C91" t="n">
-        <v>153</v>
+        <v>152.8399963379</v>
       </c>
       <c r="D91" t="n">
-        <v>155.25</v>
+        <v>153.4499969482</v>
       </c>
       <c r="E91" t="n">
-        <v>152.4700012207</v>
+        <v>152.0099945068</v>
       </c>
       <c r="F91" t="n">
-        <v>152.7599945068</v>
+        <v>152.1499938965</v>
       </c>
       <c r="G91" t="n">
-        <v>55134023</v>
+        <v>19780066</v>
       </c>
     </row>
     <row r="92">
@@ -2731,22 +2731,22 @@
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45537</v>
+        <v>45539</v>
       </c>
       <c r="C92" t="n">
-        <v>153.8999938965</v>
+        <v>149.5</v>
       </c>
       <c r="D92" t="n">
-        <v>153.8999938965</v>
+        <v>152.1799926758</v>
       </c>
       <c r="E92" t="n">
-        <v>152.1399993896</v>
+        <v>149.1600036621</v>
       </c>
       <c r="F92" t="n">
-        <v>152.8800048828</v>
+        <v>151.1799926758</v>
       </c>
       <c r="G92" t="n">
-        <v>19200143</v>
+        <v>39613696</v>
       </c>
     </row>
     <row r="93">
@@ -2756,22 +2756,22 @@
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="C93" t="n">
-        <v>152.8399963379</v>
+        <v>151</v>
       </c>
       <c r="D93" t="n">
-        <v>153.4499969482</v>
+        <v>152.7899932861</v>
       </c>
       <c r="E93" t="n">
-        <v>152.0099945068</v>
+        <v>151</v>
       </c>
       <c r="F93" t="n">
-        <v>152.1499938965</v>
+        <v>151.7200012207</v>
       </c>
       <c r="G93" t="n">
-        <v>19780066</v>
+        <v>28347324</v>
       </c>
     </row>
     <row r="94">
@@ -2781,22 +2781,22 @@
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="C94" t="n">
-        <v>149.5</v>
+        <v>151.9400024414</v>
       </c>
       <c r="D94" t="n">
-        <v>152.1799926758</v>
+        <v>152.8999938965</v>
       </c>
       <c r="E94" t="n">
-        <v>149.1600036621</v>
+        <v>149.6499938965</v>
       </c>
       <c r="F94" t="n">
-        <v>151.1799926758</v>
+        <v>151.2200012207</v>
       </c>
       <c r="G94" t="n">
-        <v>39613696</v>
+        <v>30709532</v>
       </c>
     </row>
     <row r="95">
@@ -2806,22 +2806,22 @@
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>45540</v>
+        <v>45544</v>
       </c>
       <c r="C95" t="n">
-        <v>151</v>
+        <v>150.8999938965</v>
       </c>
       <c r="D95" t="n">
-        <v>152.7899932861</v>
+        <v>150.8999938965</v>
       </c>
       <c r="E95" t="n">
-        <v>151</v>
+        <v>148.0500030518</v>
       </c>
       <c r="F95" t="n">
-        <v>151.7200012207</v>
+        <v>149.4700012207</v>
       </c>
       <c r="G95" t="n">
-        <v>28347324</v>
+        <v>32624586</v>
       </c>
     </row>
     <row r="96">
@@ -2831,22 +2831,22 @@
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>45541</v>
+        <v>45545</v>
       </c>
       <c r="C96" t="n">
-        <v>151.9400024414</v>
+        <v>150.5</v>
       </c>
       <c r="D96" t="n">
-        <v>152.8999938965</v>
+        <v>151.5899963379</v>
       </c>
       <c r="E96" t="n">
-        <v>149.6499938965</v>
+        <v>148.8099975586</v>
       </c>
       <c r="F96" t="n">
-        <v>151.2200012207</v>
+        <v>149.4199981689</v>
       </c>
       <c r="G96" t="n">
-        <v>30709532</v>
+        <v>41607844</v>
       </c>
     </row>
     <row r="97">
@@ -2856,22 +2856,22 @@
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>45544</v>
+        <v>45546</v>
       </c>
       <c r="C97" t="n">
-        <v>150.8999938965</v>
+        <v>149.8999938965</v>
       </c>
       <c r="D97" t="n">
-        <v>150.8999938965</v>
+        <v>150.1999969482</v>
       </c>
       <c r="E97" t="n">
-        <v>148.0500030518</v>
+        <v>147.6199951172</v>
       </c>
       <c r="F97" t="n">
-        <v>149.4700012207</v>
+        <v>148.1699981689</v>
       </c>
       <c r="G97" t="n">
-        <v>32624586</v>
+        <v>24633287</v>
       </c>
     </row>
     <row r="98">
@@ -2881,22 +2881,22 @@
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>45545</v>
+        <v>45547</v>
       </c>
       <c r="C98" t="n">
-        <v>150.5</v>
+        <v>152</v>
       </c>
       <c r="D98" t="n">
-        <v>151.5899963379</v>
+        <v>152.4400024414</v>
       </c>
       <c r="E98" t="n">
-        <v>148.8099975586</v>
+        <v>148.75</v>
       </c>
       <c r="F98" t="n">
-        <v>149.4199981689</v>
+        <v>151.7400054932</v>
       </c>
       <c r="G98" t="n">
-        <v>41607844</v>
+        <v>73191476</v>
       </c>
     </row>
     <row r="99">
@@ -2906,22 +2906,22 @@
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>45546</v>
+        <v>45548</v>
       </c>
       <c r="C99" t="n">
-        <v>149.8999938965</v>
+        <v>152.7799987793</v>
       </c>
       <c r="D99" t="n">
-        <v>150.1999969482</v>
+        <v>155.3999938965</v>
       </c>
       <c r="E99" t="n">
-        <v>147.6199951172</v>
+        <v>152.5</v>
       </c>
       <c r="F99" t="n">
-        <v>148.1699981689</v>
+        <v>153.4900054932</v>
       </c>
       <c r="G99" t="n">
-        <v>24633287</v>
+        <v>54894255</v>
       </c>
     </row>
     <row r="100">
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>45547</v>
+        <v>45551</v>
       </c>
       <c r="C100" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D100" t="n">
-        <v>152.4400024414</v>
+        <v>155.6600036621</v>
       </c>
       <c r="E100" t="n">
-        <v>148.75</v>
+        <v>153.5</v>
       </c>
       <c r="F100" t="n">
-        <v>151.7400054932</v>
+        <v>154.2100067139</v>
       </c>
       <c r="G100" t="n">
-        <v>73191476</v>
+        <v>32575460</v>
       </c>
     </row>
     <row r="101">
@@ -2956,22 +2956,22 @@
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>45548</v>
+        <v>45552</v>
       </c>
       <c r="C101" t="n">
-        <v>152.7799987793</v>
+        <v>154</v>
       </c>
       <c r="D101" t="n">
-        <v>155.3999938965</v>
+        <v>154.2400054932</v>
       </c>
       <c r="E101" t="n">
-        <v>152.5</v>
+        <v>152.2700042725</v>
       </c>
       <c r="F101" t="n">
-        <v>153.4900054932</v>
+        <v>152.8200073242</v>
       </c>
       <c r="G101" t="n">
-        <v>54894255</v>
+        <v>18275113</v>
       </c>
     </row>
     <row r="102">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>45551</v>
+        <v>45553</v>
       </c>
       <c r="C102" t="n">
-        <v>155</v>
+        <v>152.3999938965</v>
       </c>
       <c r="D102" t="n">
-        <v>155.6600036621</v>
+        <v>152.9799957275</v>
       </c>
       <c r="E102" t="n">
-        <v>153.5</v>
+        <v>149.6100006104</v>
       </c>
       <c r="F102" t="n">
-        <v>154.2100067139</v>
+        <v>150.6000061035</v>
       </c>
       <c r="G102" t="n">
-        <v>32575460</v>
+        <v>24856345</v>
       </c>
     </row>
     <row r="103">
@@ -3006,22 +3006,22 @@
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>45552</v>
+        <v>45554</v>
       </c>
       <c r="C103" t="n">
-        <v>154</v>
+        <v>151.8899993896</v>
       </c>
       <c r="D103" t="n">
-        <v>154.2400054932</v>
+        <v>152.1900024414</v>
       </c>
       <c r="E103" t="n">
-        <v>152.2700042725</v>
+        <v>147.7899932861</v>
       </c>
       <c r="F103" t="n">
-        <v>152.8200073242</v>
+        <v>149.5399932861</v>
       </c>
       <c r="G103" t="n">
-        <v>18275113</v>
+        <v>36913781</v>
       </c>
     </row>
     <row r="104">
@@ -3031,22 +3031,22 @@
         </is>
       </c>
       <c r="B104" s="2" t="n">
-        <v>45553</v>
+        <v>45555</v>
       </c>
       <c r="C104" t="n">
-        <v>152.3999938965</v>
+        <v>151</v>
       </c>
       <c r="D104" t="n">
-        <v>152.9799957275</v>
+        <v>153.3399963379</v>
       </c>
       <c r="E104" t="n">
-        <v>149.6100006104</v>
+        <v>150.6499938965</v>
       </c>
       <c r="F104" t="n">
-        <v>150.6000061035</v>
+        <v>152.0200042725</v>
       </c>
       <c r="G104" t="n">
-        <v>24856345</v>
+        <v>53873369</v>
       </c>
     </row>
     <row r="105">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="B105" s="2" t="n">
-        <v>45554</v>
+        <v>45558</v>
       </c>
       <c r="C105" t="n">
-        <v>151.8899993896</v>
+        <v>154.3800048828</v>
       </c>
       <c r="D105" t="n">
-        <v>152.1900024414</v>
+        <v>154.3899993896</v>
       </c>
       <c r="E105" t="n">
-        <v>147.7899932861</v>
+        <v>152.8000030518</v>
       </c>
       <c r="F105" t="n">
-        <v>149.5399932861</v>
+        <v>153.9900054932</v>
       </c>
       <c r="G105" t="n">
-        <v>36913781</v>
+        <v>33281905</v>
       </c>
     </row>
     <row r="106">
@@ -3081,22 +3081,22 @@
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>45555</v>
+        <v>45559</v>
       </c>
       <c r="C106" t="n">
-        <v>151</v>
+        <v>155.1499938965</v>
       </c>
       <c r="D106" t="n">
-        <v>153.3399963379</v>
+        <v>161.5</v>
       </c>
       <c r="E106" t="n">
-        <v>150.6499938965</v>
+        <v>154.8500061035</v>
       </c>
       <c r="F106" t="n">
-        <v>152.0200042725</v>
+        <v>160.5299987793</v>
       </c>
       <c r="G106" t="n">
-        <v>53873369</v>
+        <v>137414352</v>
       </c>
     </row>
     <row r="107">
@@ -3106,22 +3106,22 @@
         </is>
       </c>
       <c r="B107" s="2" t="n">
-        <v>45558</v>
+        <v>45560</v>
       </c>
       <c r="C107" t="n">
-        <v>154.3800048828</v>
+        <v>161.5</v>
       </c>
       <c r="D107" t="n">
-        <v>154.3899993896</v>
+        <v>162.6900024414</v>
       </c>
       <c r="E107" t="n">
-        <v>152.8000030518</v>
+        <v>159.5200042725</v>
       </c>
       <c r="F107" t="n">
-        <v>153.9900054932</v>
+        <v>161.6600036621</v>
       </c>
       <c r="G107" t="n">
-        <v>33281905</v>
+        <v>58044967</v>
       </c>
     </row>
     <row r="108">
@@ -3131,22 +3131,22 @@
         </is>
       </c>
       <c r="B108" s="2" t="n">
-        <v>45559</v>
+        <v>45561</v>
       </c>
       <c r="C108" t="n">
-        <v>155.1499938965</v>
+        <v>162</v>
       </c>
       <c r="D108" t="n">
-        <v>161.5</v>
+        <v>165.8999938965</v>
       </c>
       <c r="E108" t="n">
-        <v>154.8500061035</v>
+        <v>160.4799957275</v>
       </c>
       <c r="F108" t="n">
-        <v>160.5299987793</v>
+        <v>165.6100006104</v>
       </c>
       <c r="G108" t="n">
-        <v>137414352</v>
+        <v>88661662</v>
       </c>
     </row>
     <row r="109">
@@ -3156,22 +3156,22 @@
         </is>
       </c>
       <c r="B109" s="2" t="n">
-        <v>45560</v>
+        <v>45562</v>
       </c>
       <c r="C109" t="n">
-        <v>161.5</v>
+        <v>167</v>
       </c>
       <c r="D109" t="n">
-        <v>162.6900024414</v>
+        <v>169.0099945068</v>
       </c>
       <c r="E109" t="n">
-        <v>159.5200042725</v>
+        <v>165.8899993896</v>
       </c>
       <c r="F109" t="n">
-        <v>161.6600036621</v>
+        <v>166.5500030518</v>
       </c>
       <c r="G109" t="n">
-        <v>58044967</v>
+        <v>72795668</v>
       </c>
     </row>
     <row r="110">
@@ -3181,22 +3181,22 @@
         </is>
       </c>
       <c r="B110" s="2" t="n">
-        <v>45561</v>
+        <v>45565</v>
       </c>
       <c r="C110" t="n">
-        <v>162</v>
+        <v>167.5</v>
       </c>
       <c r="D110" t="n">
-        <v>165.8999938965</v>
+        <v>170.1799926758</v>
       </c>
       <c r="E110" t="n">
-        <v>160.4799957275</v>
+        <v>167.2599945068</v>
       </c>
       <c r="F110" t="n">
-        <v>165.6100006104</v>
+        <v>168.5500030518</v>
       </c>
       <c r="G110" t="n">
-        <v>88661662</v>
+        <v>92381529</v>
       </c>
     </row>
     <row r="111">
@@ -3206,22 +3206,22 @@
         </is>
       </c>
       <c r="B111" s="2" t="n">
-        <v>45562</v>
+        <v>45566</v>
       </c>
       <c r="C111" t="n">
-        <v>167</v>
+        <v>169.4900054932</v>
       </c>
       <c r="D111" t="n">
-        <v>169.0099945068</v>
+        <v>169.4900054932</v>
       </c>
       <c r="E111" t="n">
-        <v>165.8899993896</v>
+        <v>165.1000061035</v>
       </c>
       <c r="F111" t="n">
-        <v>166.5500030518</v>
+        <v>167.0299987793</v>
       </c>
       <c r="G111" t="n">
-        <v>72795668</v>
+        <v>50761579</v>
       </c>
     </row>
     <row r="112">
@@ -3231,22 +3231,22 @@
         </is>
       </c>
       <c r="B112" s="2" t="n">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="C112" t="n">
-        <v>167.5</v>
+        <v>165.5</v>
       </c>
       <c r="D112" t="n">
-        <v>170.1799926758</v>
+        <v>169.9900054932</v>
       </c>
       <c r="E112" t="n">
-        <v>167.2599945068</v>
+        <v>164.5200042725</v>
       </c>
       <c r="F112" t="n">
-        <v>168.5500030518</v>
+        <v>166.9799957275</v>
       </c>
       <c r="G112" t="n">
-        <v>92381529</v>
+        <v>75959797</v>
       </c>
     </row>
     <row r="113">
@@ -3256,22 +3256,22 @@
         </is>
       </c>
       <c r="B113" s="2" t="n">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="C113" t="n">
-        <v>169.4900054932</v>
+        <v>167</v>
       </c>
       <c r="D113" t="n">
-        <v>169.4900054932</v>
+        <v>169.1000061035</v>
       </c>
       <c r="E113" t="n">
-        <v>165.1000061035</v>
+        <v>164</v>
       </c>
       <c r="F113" t="n">
-        <v>167.0299987793</v>
+        <v>166.75</v>
       </c>
       <c r="G113" t="n">
-        <v>50761579</v>
+        <v>53880875</v>
       </c>
     </row>
     <row r="114">
@@ -3281,22 +3281,22 @@
         </is>
       </c>
       <c r="B114" s="2" t="n">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="C114" t="n">
-        <v>165.5</v>
+        <v>167.1000061035</v>
       </c>
       <c r="D114" t="n">
-        <v>169.9900054932</v>
+        <v>167.9499969482</v>
       </c>
       <c r="E114" t="n">
-        <v>164.5200042725</v>
+        <v>162.3300018311</v>
       </c>
       <c r="F114" t="n">
-        <v>166.9799957275</v>
+        <v>164.3600006104</v>
       </c>
       <c r="G114" t="n">
-        <v>75959797</v>
+        <v>48775098</v>
       </c>
     </row>
     <row r="115">
@@ -3306,22 +3306,22 @@
         </is>
       </c>
       <c r="B115" s="2" t="n">
-        <v>45569</v>
+        <v>45573</v>
       </c>
       <c r="C115" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D115" t="n">
-        <v>169.1000061035</v>
+        <v>163.5899963379</v>
       </c>
       <c r="E115" t="n">
-        <v>164</v>
+        <v>156.6999969482</v>
       </c>
       <c r="F115" t="n">
-        <v>166.75</v>
+        <v>159.5200042725</v>
       </c>
       <c r="G115" t="n">
-        <v>53880875</v>
+        <v>74956764</v>
       </c>
     </row>
     <row r="116">
@@ -3331,22 +3331,22 @@
         </is>
       </c>
       <c r="B116" s="2" t="n">
-        <v>45572</v>
+        <v>45574</v>
       </c>
       <c r="C116" t="n">
-        <v>167.1000061035</v>
+        <v>159.5200042725</v>
       </c>
       <c r="D116" t="n">
-        <v>167.9499969482</v>
+        <v>162.1999969482</v>
       </c>
       <c r="E116" t="n">
-        <v>162.3300018311</v>
+        <v>158.1100006104</v>
       </c>
       <c r="F116" t="n">
-        <v>164.3600006104</v>
+        <v>159.0599975586</v>
       </c>
       <c r="G116" t="n">
-        <v>48775098</v>
+        <v>42766218</v>
       </c>
     </row>
     <row r="117">
@@ -3356,22 +3356,22 @@
         </is>
       </c>
       <c r="B117" s="2" t="n">
-        <v>45573</v>
+        <v>45575</v>
       </c>
       <c r="C117" t="n">
-        <v>163</v>
+        <v>158.3000030518</v>
       </c>
       <c r="D117" t="n">
-        <v>163.5899963379</v>
+        <v>161.1799926758</v>
       </c>
       <c r="E117" t="n">
-        <v>156.6999969482</v>
+        <v>156.6000061035</v>
       </c>
       <c r="F117" t="n">
-        <v>159.5200042725</v>
+        <v>159.7200012207</v>
       </c>
       <c r="G117" t="n">
-        <v>74956764</v>
+        <v>46507936</v>
       </c>
     </row>
     <row r="118">
@@ -3381,22 +3381,22 @@
         </is>
       </c>
       <c r="B118" s="2" t="n">
-        <v>45574</v>
+        <v>45576</v>
       </c>
       <c r="C118" t="n">
-        <v>159.5200042725</v>
+        <v>159.3000030518</v>
       </c>
       <c r="D118" t="n">
-        <v>162.1999969482</v>
+        <v>163.7799987793</v>
       </c>
       <c r="E118" t="n">
-        <v>158.1100006104</v>
+        <v>159.1999969482</v>
       </c>
       <c r="F118" t="n">
-        <v>159.0599975586</v>
+        <v>160.6600036621</v>
       </c>
       <c r="G118" t="n">
-        <v>42766218</v>
+        <v>53263433</v>
       </c>
     </row>
     <row r="119">
@@ -3406,22 +3406,22 @@
         </is>
       </c>
       <c r="B119" s="2" t="n">
-        <v>45575</v>
+        <v>45579</v>
       </c>
       <c r="C119" t="n">
-        <v>158.3000030518</v>
+        <v>161.8800048828</v>
       </c>
       <c r="D119" t="n">
-        <v>161.1799926758</v>
+        <v>163.3800048828</v>
       </c>
       <c r="E119" t="n">
-        <v>156.6000061035</v>
+        <v>158.0399932861</v>
       </c>
       <c r="F119" t="n">
-        <v>159.7200012207</v>
+        <v>158.3200073242</v>
       </c>
       <c r="G119" t="n">
-        <v>46507936</v>
+        <v>35566857</v>
       </c>
     </row>
     <row r="120">
@@ -3431,22 +3431,22 @@
         </is>
       </c>
       <c r="B120" s="2" t="n">
-        <v>45576</v>
+        <v>45580</v>
       </c>
       <c r="C120" t="n">
-        <v>159.3000030518</v>
+        <v>159.5</v>
       </c>
       <c r="D120" t="n">
-        <v>163.7799987793</v>
+        <v>159.5299987793</v>
       </c>
       <c r="E120" t="n">
-        <v>159.1999969482</v>
+        <v>155.0500030518</v>
       </c>
       <c r="F120" t="n">
-        <v>160.6600036621</v>
+        <v>155.6300048828</v>
       </c>
       <c r="G120" t="n">
-        <v>53263433</v>
+        <v>38964393</v>
       </c>
     </row>
     <row r="121">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="B121" s="2" t="n">
-        <v>45579</v>
+        <v>45581</v>
       </c>
       <c r="C121" t="n">
-        <v>161.8800048828</v>
+        <v>155.1900024414</v>
       </c>
       <c r="D121" t="n">
-        <v>163.3800048828</v>
+        <v>156.5500030518</v>
       </c>
       <c r="E121" t="n">
-        <v>158.0399932861</v>
+        <v>154.0200042725</v>
       </c>
       <c r="F121" t="n">
-        <v>158.3200073242</v>
+        <v>155.2400054932</v>
       </c>
       <c r="G121" t="n">
-        <v>35566857</v>
+        <v>28518262</v>
       </c>
     </row>
     <row r="122">
@@ -3481,22 +3481,22 @@
         </is>
       </c>
       <c r="B122" s="2" t="n">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="C122" t="n">
-        <v>159.5</v>
+        <v>155.6499938965</v>
       </c>
       <c r="D122" t="n">
-        <v>159.5299987793</v>
+        <v>156.3000030518</v>
       </c>
       <c r="E122" t="n">
-        <v>155.0500030518</v>
+        <v>152.1000061035</v>
       </c>
       <c r="F122" t="n">
-        <v>155.6300048828</v>
+        <v>152.3999938965</v>
       </c>
       <c r="G122" t="n">
-        <v>38964393</v>
+        <v>28404223</v>
       </c>
     </row>
     <row r="123">
@@ -3506,22 +3506,22 @@
         </is>
       </c>
       <c r="B123" s="2" t="n">
-        <v>45581</v>
+        <v>45583</v>
       </c>
       <c r="C123" t="n">
-        <v>155.1900024414</v>
+        <v>152.3999938965</v>
       </c>
       <c r="D123" t="n">
-        <v>156.5500030518</v>
+        <v>156.1999969482</v>
       </c>
       <c r="E123" t="n">
-        <v>154.0200042725</v>
+        <v>151.1000061035</v>
       </c>
       <c r="F123" t="n">
-        <v>155.2400054932</v>
+        <v>155.3899993896</v>
       </c>
       <c r="G123" t="n">
-        <v>28518262</v>
+        <v>34750795</v>
       </c>
     </row>
     <row r="124">
@@ -3531,22 +3531,22 @@
         </is>
       </c>
       <c r="B124" s="2" t="n">
-        <v>45582</v>
+        <v>45586</v>
       </c>
       <c r="C124" t="n">
-        <v>155.6499938965</v>
+        <v>156.1000061035</v>
       </c>
       <c r="D124" t="n">
-        <v>156.3000030518</v>
+        <v>157.9299926758</v>
       </c>
       <c r="E124" t="n">
-        <v>152.1000061035</v>
+        <v>154.5899963379</v>
       </c>
       <c r="F124" t="n">
-        <v>152.3999938965</v>
+        <v>155.0299987793</v>
       </c>
       <c r="G124" t="n">
-        <v>28404223</v>
+        <v>25799090</v>
       </c>
     </row>
     <row r="125">
@@ -3556,22 +3556,22 @@
         </is>
       </c>
       <c r="B125" s="2" t="n">
-        <v>45583</v>
+        <v>45587</v>
       </c>
       <c r="C125" t="n">
-        <v>152.3999938965</v>
+        <v>154.8999938965</v>
       </c>
       <c r="D125" t="n">
-        <v>156.1999969482</v>
+        <v>154.8999938965</v>
       </c>
       <c r="E125" t="n">
-        <v>151.1000061035</v>
+        <v>150.1000061035</v>
       </c>
       <c r="F125" t="n">
-        <v>155.3899993896</v>
+        <v>150.3899993896</v>
       </c>
       <c r="G125" t="n">
-        <v>34750795</v>
+        <v>39079846</v>
       </c>
     </row>
     <row r="126">
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B126" s="2" t="n">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="C126" t="n">
-        <v>156.1000061035</v>
+        <v>150.3000030518</v>
       </c>
       <c r="D126" t="n">
-        <v>157.9299926758</v>
+        <v>151.9499969482</v>
       </c>
       <c r="E126" t="n">
-        <v>154.5899963379</v>
+        <v>148.0500030518</v>
       </c>
       <c r="F126" t="n">
-        <v>155.0299987793</v>
+        <v>148.7799987793</v>
       </c>
       <c r="G126" t="n">
-        <v>25799090</v>
+        <v>42107893</v>
       </c>
     </row>
     <row r="127">
@@ -3606,22 +3606,22 @@
         </is>
       </c>
       <c r="B127" s="2" t="n">
-        <v>45587</v>
+        <v>45589</v>
       </c>
       <c r="C127" t="n">
-        <v>154.8999938965</v>
+        <v>149.4900054932</v>
       </c>
       <c r="D127" t="n">
-        <v>154.8999938965</v>
+        <v>149.8300018311</v>
       </c>
       <c r="E127" t="n">
-        <v>150.1000061035</v>
+        <v>148.0099945068</v>
       </c>
       <c r="F127" t="n">
-        <v>150.3899993896</v>
+        <v>148.9799957275</v>
       </c>
       <c r="G127" t="n">
-        <v>39079846</v>
+        <v>22115070</v>
       </c>
     </row>
     <row r="128">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="B128" s="2" t="n">
-        <v>45588</v>
+        <v>45590</v>
       </c>
       <c r="C128" t="n">
-        <v>150.3000030518</v>
+        <v>149</v>
       </c>
       <c r="D128" t="n">
-        <v>151.9499969482</v>
+        <v>149.5</v>
       </c>
       <c r="E128" t="n">
-        <v>148.0500030518</v>
+        <v>144.4299926758</v>
       </c>
       <c r="F128" t="n">
-        <v>148.7799987793</v>
+        <v>145.8600006104</v>
       </c>
       <c r="G128" t="n">
-        <v>42107893</v>
+        <v>39730802</v>
       </c>
     </row>
     <row r="129">
@@ -3656,22 +3656,22 @@
         </is>
       </c>
       <c r="B129" s="2" t="n">
-        <v>45589</v>
+        <v>45593</v>
       </c>
       <c r="C129" t="n">
-        <v>149.4900054932</v>
+        <v>146</v>
       </c>
       <c r="D129" t="n">
-        <v>149.8300018311</v>
+        <v>149.7299957275</v>
       </c>
       <c r="E129" t="n">
-        <v>148.0099945068</v>
+        <v>144.7299957275</v>
       </c>
       <c r="F129" t="n">
-        <v>148.9799957275</v>
+        <v>149.3800048828</v>
       </c>
       <c r="G129" t="n">
-        <v>22115070</v>
+        <v>28386897</v>
       </c>
     </row>
     <row r="130">
@@ -3681,22 +3681,22 @@
         </is>
       </c>
       <c r="B130" s="2" t="n">
-        <v>45590</v>
+        <v>45594</v>
       </c>
       <c r="C130" t="n">
-        <v>149</v>
+        <v>149.8500061035</v>
       </c>
       <c r="D130" t="n">
-        <v>149.5</v>
+        <v>150.4499969482</v>
       </c>
       <c r="E130" t="n">
-        <v>144.4299926758</v>
+        <v>146.5500030518</v>
       </c>
       <c r="F130" t="n">
-        <v>145.8600006104</v>
+        <v>150.0599975586</v>
       </c>
       <c r="G130" t="n">
-        <v>39730802</v>
+        <v>32258407</v>
       </c>
     </row>
     <row r="131">
@@ -3706,22 +3706,22 @@
         </is>
       </c>
       <c r="B131" s="2" t="n">
-        <v>45593</v>
+        <v>45595</v>
       </c>
       <c r="C131" t="n">
-        <v>146</v>
+        <v>148.1000061035</v>
       </c>
       <c r="D131" t="n">
-        <v>149.7299957275</v>
+        <v>150.9499969482</v>
       </c>
       <c r="E131" t="n">
-        <v>144.7299957275</v>
+        <v>148.1000061035</v>
       </c>
       <c r="F131" t="n">
-        <v>149.3800048828</v>
+        <v>148.9700012207</v>
       </c>
       <c r="G131" t="n">
-        <v>28386897</v>
+        <v>21362130</v>
       </c>
     </row>
     <row r="132">
@@ -3731,22 +3731,22 @@
         </is>
       </c>
       <c r="B132" s="2" t="n">
-        <v>45594</v>
+        <v>45596</v>
       </c>
       <c r="C132" t="n">
-        <v>149.8500061035</v>
+        <v>149.0800018311</v>
       </c>
       <c r="D132" t="n">
-        <v>150.4499969482</v>
+        <v>149.9499969482</v>
       </c>
       <c r="E132" t="n">
-        <v>146.5500030518</v>
+        <v>148.1999969482</v>
       </c>
       <c r="F132" t="n">
-        <v>150.0599975586</v>
+        <v>148.5599975586</v>
       </c>
       <c r="G132" t="n">
-        <v>32258407</v>
+        <v>26383702</v>
       </c>
     </row>
     <row r="133">
@@ -3756,22 +3756,22 @@
         </is>
       </c>
       <c r="B133" s="2" t="n">
-        <v>45595</v>
+        <v>45597</v>
       </c>
       <c r="C133" t="n">
-        <v>148.1000061035</v>
+        <v>149.6600036621</v>
       </c>
       <c r="D133" t="n">
-        <v>150.9499969482</v>
+        <v>150.25</v>
       </c>
       <c r="E133" t="n">
-        <v>148.1000061035</v>
+        <v>149</v>
       </c>
       <c r="F133" t="n">
-        <v>148.9700012207</v>
+        <v>149.75</v>
       </c>
       <c r="G133" t="n">
-        <v>21362130</v>
+        <v>5106804</v>
       </c>
     </row>
     <row r="134">
@@ -3781,22 +3781,22 @@
         </is>
       </c>
       <c r="B134" s="2" t="n">
-        <v>45596</v>
+        <v>45600</v>
       </c>
       <c r="C134" t="n">
-        <v>149.0800018311</v>
+        <v>150</v>
       </c>
       <c r="D134" t="n">
-        <v>149.9499969482</v>
+        <v>150</v>
       </c>
       <c r="E134" t="n">
-        <v>148.1999969482</v>
+        <v>145.1000061035</v>
       </c>
       <c r="F134" t="n">
-        <v>148.5599975586</v>
+        <v>146.9499969482</v>
       </c>
       <c r="G134" t="n">
-        <v>26383702</v>
+        <v>25571021</v>
       </c>
     </row>
     <row r="135">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="B135" s="2" t="n">
-        <v>45597</v>
+        <v>45601</v>
       </c>
       <c r="C135" t="n">
-        <v>149.6600036621</v>
+        <v>147</v>
       </c>
       <c r="D135" t="n">
-        <v>150.25</v>
+        <v>152.5500030518</v>
       </c>
       <c r="E135" t="n">
-        <v>149</v>
+        <v>146.9499969482</v>
       </c>
       <c r="F135" t="n">
-        <v>149.75</v>
+        <v>152.2899932861</v>
       </c>
       <c r="G135" t="n">
-        <v>5106804</v>
+        <v>42772283</v>
       </c>
     </row>
     <row r="136">
@@ -3831,22 +3831,22 @@
         </is>
       </c>
       <c r="B136" s="2" t="n">
-        <v>45600</v>
+        <v>45602</v>
       </c>
       <c r="C136" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D136" t="n">
-        <v>150</v>
+        <v>154.9499969482</v>
       </c>
       <c r="E136" t="n">
-        <v>145.1000061035</v>
+        <v>149.5899963379</v>
       </c>
       <c r="F136" t="n">
-        <v>146.9499969482</v>
+        <v>153.6199951172</v>
       </c>
       <c r="G136" t="n">
-        <v>25571021</v>
+        <v>48928986</v>
       </c>
     </row>
     <row r="137">
@@ -3856,22 +3856,22 @@
         </is>
       </c>
       <c r="B137" s="2" t="n">
-        <v>45601</v>
+        <v>45603</v>
       </c>
       <c r="C137" t="n">
-        <v>147</v>
+        <v>156.1100006104</v>
       </c>
       <c r="D137" t="n">
-        <v>152.5500030518</v>
+        <v>156.9199981689</v>
       </c>
       <c r="E137" t="n">
-        <v>146.9499969482</v>
+        <v>150.1999969482</v>
       </c>
       <c r="F137" t="n">
-        <v>152.2899932861</v>
+        <v>150.9499969482</v>
       </c>
       <c r="G137" t="n">
-        <v>42772283</v>
+        <v>88254789</v>
       </c>
     </row>
     <row r="138">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="B138" s="2" t="n">
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="C138" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D138" t="n">
-        <v>154.9499969482</v>
+        <v>152</v>
       </c>
       <c r="E138" t="n">
-        <v>149.5899963379</v>
+        <v>146.9400024414</v>
       </c>
       <c r="F138" t="n">
-        <v>153.6199951172</v>
+        <v>147.5700073242</v>
       </c>
       <c r="G138" t="n">
-        <v>48928986</v>
+        <v>61980989</v>
       </c>
     </row>
     <row r="139">
@@ -3906,22 +3906,22 @@
         </is>
       </c>
       <c r="B139" s="2" t="n">
-        <v>45603</v>
+        <v>45607</v>
       </c>
       <c r="C139" t="n">
-        <v>156.1100006104</v>
+        <v>147.5700073242</v>
       </c>
       <c r="D139" t="n">
-        <v>156.9199981689</v>
+        <v>147.6900024414</v>
       </c>
       <c r="E139" t="n">
-        <v>150.1999969482</v>
+        <v>144.1000061035</v>
       </c>
       <c r="F139" t="n">
-        <v>150.9499969482</v>
+        <v>145.0099945068</v>
       </c>
       <c r="G139" t="n">
-        <v>88254789</v>
+        <v>47497863</v>
       </c>
     </row>
     <row r="140">
@@ -3931,22 +3931,22 @@
         </is>
       </c>
       <c r="B140" s="2" t="n">
-        <v>45604</v>
+        <v>45608</v>
       </c>
       <c r="C140" t="n">
-        <v>152</v>
+        <v>145.6499938965</v>
       </c>
       <c r="D140" t="n">
-        <v>152</v>
+        <v>147.1300048828</v>
       </c>
       <c r="E140" t="n">
-        <v>146.9400024414</v>
+        <v>143.6000061035</v>
       </c>
       <c r="F140" t="n">
-        <v>147.5700073242</v>
+        <v>144.1699981689</v>
       </c>
       <c r="G140" t="n">
-        <v>61980989</v>
+        <v>28861672</v>
       </c>
     </row>
     <row r="141">
@@ -3956,22 +3956,22 @@
         </is>
       </c>
       <c r="B141" s="2" t="n">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="C141" t="n">
-        <v>147.5700073242</v>
+        <v>143.6000061035</v>
       </c>
       <c r="D141" t="n">
-        <v>147.6900024414</v>
+        <v>143.6000061035</v>
       </c>
       <c r="E141" t="n">
-        <v>144.1000061035</v>
+        <v>138.6000061035</v>
       </c>
       <c r="F141" t="n">
-        <v>145.0099945068</v>
+        <v>139.1699981689</v>
       </c>
       <c r="G141" t="n">
-        <v>47497863</v>
+        <v>57609083</v>
       </c>
     </row>
     <row r="142">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="B142" s="2" t="n">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="C142" t="n">
-        <v>145.6499938965</v>
+        <v>139.7100067139</v>
       </c>
       <c r="D142" t="n">
-        <v>147.1300048828</v>
+        <v>140.7299957275</v>
       </c>
       <c r="E142" t="n">
-        <v>143.6000061035</v>
+        <v>137.5</v>
       </c>
       <c r="F142" t="n">
-        <v>144.1699981689</v>
+        <v>137.9799957275</v>
       </c>
       <c r="G142" t="n">
-        <v>28861672</v>
+        <v>36345184</v>
       </c>
     </row>
     <row r="143">
@@ -4006,22 +4006,22 @@
         </is>
       </c>
       <c r="B143" s="2" t="n">
-        <v>45609</v>
+        <v>45614</v>
       </c>
       <c r="C143" t="n">
-        <v>143.6000061035</v>
+        <v>139.4900054932</v>
       </c>
       <c r="D143" t="n">
-        <v>143.6000061035</v>
+        <v>143.25</v>
       </c>
       <c r="E143" t="n">
-        <v>138.6000061035</v>
+        <v>138</v>
       </c>
       <c r="F143" t="n">
-        <v>139.1699981689</v>
+        <v>141.2100067139</v>
       </c>
       <c r="G143" t="n">
-        <v>57609083</v>
+        <v>40233848</v>
       </c>
     </row>
     <row r="144">
@@ -4031,22 +4031,22 @@
         </is>
       </c>
       <c r="B144" s="2" t="n">
-        <v>45610</v>
+        <v>45615</v>
       </c>
       <c r="C144" t="n">
-        <v>139.7100067139</v>
+        <v>142</v>
       </c>
       <c r="D144" t="n">
-        <v>140.7299957275</v>
+        <v>142.4900054932</v>
       </c>
       <c r="E144" t="n">
-        <v>137.5</v>
+        <v>139.0599975586</v>
       </c>
       <c r="F144" t="n">
-        <v>137.9799957275</v>
+        <v>139.4600067139</v>
       </c>
       <c r="G144" t="n">
-        <v>36345184</v>
+        <v>37611903</v>
       </c>
     </row>
     <row r="145">
@@ -4056,22 +4056,22 @@
         </is>
       </c>
       <c r="B145" s="2" t="n">
-        <v>45614</v>
+        <v>45617</v>
       </c>
       <c r="C145" t="n">
-        <v>139.4900054932</v>
+        <v>139.5</v>
       </c>
       <c r="D145" t="n">
-        <v>143.25</v>
+        <v>141.6000061035</v>
       </c>
       <c r="E145" t="n">
-        <v>138</v>
+        <v>137.25</v>
       </c>
       <c r="F145" t="n">
-        <v>141.2100067139</v>
+        <v>140.2200012207</v>
       </c>
       <c r="G145" t="n">
-        <v>40233848</v>
+        <v>58398744</v>
       </c>
     </row>
     <row r="146">
@@ -4081,22 +4081,22 @@
         </is>
       </c>
       <c r="B146" s="2" t="n">
-        <v>45615</v>
+        <v>45618</v>
       </c>
       <c r="C146" t="n">
-        <v>142</v>
+        <v>140.1499938965</v>
       </c>
       <c r="D146" t="n">
-        <v>142.4900054932</v>
+        <v>143.1900024414</v>
       </c>
       <c r="E146" t="n">
-        <v>139.0599975586</v>
+        <v>139.6499938965</v>
       </c>
       <c r="F146" t="n">
-        <v>139.4600067139</v>
+        <v>142.7799987793</v>
       </c>
       <c r="G146" t="n">
-        <v>37611903</v>
+        <v>43710169</v>
       </c>
     </row>
     <row r="147">
@@ -4106,22 +4106,22 @@
         </is>
       </c>
       <c r="B147" s="2" t="n">
-        <v>45617</v>
+        <v>45621</v>
       </c>
       <c r="C147" t="n">
-        <v>139.5</v>
+        <v>144.9400024414</v>
       </c>
       <c r="D147" t="n">
-        <v>141.6000061035</v>
+        <v>146.1499938965</v>
       </c>
       <c r="E147" t="n">
-        <v>137.25</v>
+        <v>142.8399963379</v>
       </c>
       <c r="F147" t="n">
-        <v>140.2200012207</v>
+        <v>143.6699981689</v>
       </c>
       <c r="G147" t="n">
-        <v>58398744</v>
+        <v>53883890</v>
       </c>
     </row>
     <row r="148">
@@ -4131,22 +4131,22 @@
         </is>
       </c>
       <c r="B148" s="2" t="n">
-        <v>45618</v>
+        <v>45622</v>
       </c>
       <c r="C148" t="n">
-        <v>140.1499938965</v>
+        <v>144.2200012207</v>
       </c>
       <c r="D148" t="n">
-        <v>143.1900024414</v>
+        <v>145.8000030518</v>
       </c>
       <c r="E148" t="n">
-        <v>139.6499938965</v>
+        <v>143.5800018311</v>
       </c>
       <c r="F148" t="n">
-        <v>142.7799987793</v>
+        <v>144.4700012207</v>
       </c>
       <c r="G148" t="n">
-        <v>43710169</v>
+        <v>25608469</v>
       </c>
     </row>
     <row r="149">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="B149" s="2" t="n">
-        <v>45621</v>
+        <v>45623</v>
       </c>
       <c r="C149" t="n">
-        <v>144.9400024414</v>
+        <v>144.3099975586</v>
       </c>
       <c r="D149" t="n">
-        <v>146.1499938965</v>
+        <v>144.8999938965</v>
       </c>
       <c r="E149" t="n">
-        <v>142.8399963379</v>
+        <v>142.8999938965</v>
       </c>
       <c r="F149" t="n">
-        <v>143.6699981689</v>
+        <v>144.5299987793</v>
       </c>
       <c r="G149" t="n">
-        <v>53883890</v>
+        <v>24895631</v>
       </c>
     </row>
     <row r="150">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B150" s="2" t="n">
-        <v>45622</v>
+        <v>45624</v>
       </c>
       <c r="C150" t="n">
-        <v>144.2200012207</v>
+        <v>144</v>
       </c>
       <c r="D150" t="n">
-        <v>145.8000030518</v>
+        <v>145.25</v>
       </c>
       <c r="E150" t="n">
-        <v>143.5800018311</v>
+        <v>143.0899963379</v>
       </c>
       <c r="F150" t="n">
-        <v>144.4700012207</v>
+        <v>143.3899993896</v>
       </c>
       <c r="G150" t="n">
-        <v>25608469</v>
+        <v>30947861</v>
       </c>
     </row>
     <row r="151">
@@ -4206,22 +4206,22 @@
         </is>
       </c>
       <c r="B151" s="2" t="n">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="C151" t="n">
-        <v>144.3099975586</v>
+        <v>143.8999938965</v>
       </c>
       <c r="D151" t="n">
-        <v>144.8999938965</v>
+        <v>145.4900054932</v>
       </c>
       <c r="E151" t="n">
-        <v>142.8999938965</v>
+        <v>143.0500030518</v>
       </c>
       <c r="F151" t="n">
-        <v>144.5299987793</v>
+        <v>144.5399932861</v>
       </c>
       <c r="G151" t="n">
-        <v>24895631</v>
+        <v>29742979</v>
       </c>
     </row>
     <row r="152">
@@ -4231,22 +4231,22 @@
         </is>
       </c>
       <c r="B152" s="2" t="n">
-        <v>45624</v>
+        <v>45628</v>
       </c>
       <c r="C152" t="n">
-        <v>144</v>
+        <v>144.1100006104</v>
       </c>
       <c r="D152" t="n">
-        <v>145.25</v>
+        <v>146.8300018311</v>
       </c>
       <c r="E152" t="n">
-        <v>143.0899963379</v>
+        <v>143.1399993896</v>
       </c>
       <c r="F152" t="n">
-        <v>143.3899993896</v>
+        <v>146.4100036621</v>
       </c>
       <c r="G152" t="n">
-        <v>30947861</v>
+        <v>23840351</v>
       </c>
     </row>
     <row r="153">
@@ -4256,22 +4256,22 @@
         </is>
       </c>
       <c r="B153" s="2" t="n">
-        <v>45625</v>
+        <v>45629</v>
       </c>
       <c r="C153" t="n">
-        <v>143.8999938965</v>
+        <v>146.75</v>
       </c>
       <c r="D153" t="n">
-        <v>145.4900054932</v>
+        <v>148.1999969482</v>
       </c>
       <c r="E153" t="n">
-        <v>143.0500030518</v>
+        <v>146.3399963379</v>
       </c>
       <c r="F153" t="n">
-        <v>144.5399932861</v>
+        <v>146.5399932861</v>
       </c>
       <c r="G153" t="n">
-        <v>29742979</v>
+        <v>35527228</v>
       </c>
     </row>
     <row r="154">
@@ -4281,22 +4281,22 @@
         </is>
       </c>
       <c r="B154" s="2" t="n">
-        <v>45628</v>
+        <v>45630</v>
       </c>
       <c r="C154" t="n">
-        <v>144.1100006104</v>
+        <v>147</v>
       </c>
       <c r="D154" t="n">
-        <v>146.8300018311</v>
+        <v>147.0500030518</v>
       </c>
       <c r="E154" t="n">
-        <v>143.1399993896</v>
+        <v>144</v>
       </c>
       <c r="F154" t="n">
-        <v>146.4100036621</v>
+        <v>145.8500061035</v>
       </c>
       <c r="G154" t="n">
-        <v>23840351</v>
+        <v>38537808</v>
       </c>
     </row>
     <row r="155">
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B155" s="2" t="n">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="C155" t="n">
-        <v>146.75</v>
+        <v>146.5</v>
       </c>
       <c r="D155" t="n">
-        <v>148.1999969482</v>
+        <v>147.8800048828</v>
       </c>
       <c r="E155" t="n">
-        <v>146.3399963379</v>
+        <v>144.8000030518</v>
       </c>
       <c r="F155" t="n">
-        <v>146.5399932861</v>
+        <v>147.0700073242</v>
       </c>
       <c r="G155" t="n">
-        <v>35527228</v>
+        <v>36328245</v>
       </c>
     </row>
     <row r="156">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="B156" s="2" t="n">
-        <v>45630</v>
+        <v>45632</v>
       </c>
       <c r="C156" t="n">
-        <v>147</v>
+        <v>147.5</v>
       </c>
       <c r="D156" t="n">
-        <v>147.0500030518</v>
+        <v>148.6799926758</v>
       </c>
       <c r="E156" t="n">
-        <v>144</v>
+        <v>146.6000061035</v>
       </c>
       <c r="F156" t="n">
-        <v>145.8500061035</v>
+        <v>148.2899932861</v>
       </c>
       <c r="G156" t="n">
-        <v>38537808</v>
+        <v>30604899</v>
       </c>
     </row>
     <row r="157">
@@ -4356,22 +4356,22 @@
         </is>
       </c>
       <c r="B157" s="2" t="n">
-        <v>45631</v>
+        <v>45635</v>
       </c>
       <c r="C157" t="n">
-        <v>146.5</v>
+        <v>148.2899932861</v>
       </c>
       <c r="D157" t="n">
-        <v>147.8800048828</v>
+        <v>150.6699981689</v>
       </c>
       <c r="E157" t="n">
-        <v>144.8000030518</v>
+        <v>146.6300048828</v>
       </c>
       <c r="F157" t="n">
-        <v>147.0700073242</v>
+        <v>149.8800048828</v>
       </c>
       <c r="G157" t="n">
-        <v>36328245</v>
+        <v>39059139</v>
       </c>
     </row>
     <row r="158">
@@ -4381,22 +4381,22 @@
         </is>
       </c>
       <c r="B158" s="2" t="n">
-        <v>45632</v>
+        <v>45636</v>
       </c>
       <c r="C158" t="n">
-        <v>147.5</v>
+        <v>150.1900024414</v>
       </c>
       <c r="D158" t="n">
-        <v>148.6799926758</v>
+        <v>152.5</v>
       </c>
       <c r="E158" t="n">
-        <v>146.6000061035</v>
+        <v>149.3099975586</v>
       </c>
       <c r="F158" t="n">
-        <v>148.2899932861</v>
+        <v>150.3200073242</v>
       </c>
       <c r="G158" t="n">
-        <v>30604899</v>
+        <v>36278104</v>
       </c>
     </row>
     <row r="159">
@@ -4406,22 +4406,22 @@
         </is>
       </c>
       <c r="B159" s="2" t="n">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="C159" t="n">
-        <v>148.2899932861</v>
+        <v>150.5899963379</v>
       </c>
       <c r="D159" t="n">
-        <v>150.6699981689</v>
+        <v>152.1100006104</v>
       </c>
       <c r="E159" t="n">
-        <v>146.6300048828</v>
+        <v>150.0599975586</v>
       </c>
       <c r="F159" t="n">
-        <v>149.8800048828</v>
+        <v>150.6000061035</v>
       </c>
       <c r="G159" t="n">
-        <v>39059139</v>
+        <v>20499709</v>
       </c>
     </row>
     <row r="160">
@@ -4431,22 +4431,22 @@
         </is>
       </c>
       <c r="B160" s="2" t="n">
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="C160" t="n">
-        <v>150.1900024414</v>
+        <v>150.8699951172</v>
       </c>
       <c r="D160" t="n">
-        <v>152.5</v>
+        <v>151.6300048828</v>
       </c>
       <c r="E160" t="n">
-        <v>149.3099975586</v>
+        <v>148.6999969482</v>
       </c>
       <c r="F160" t="n">
-        <v>150.3200073242</v>
+        <v>150.7799987793</v>
       </c>
       <c r="G160" t="n">
-        <v>36278104</v>
+        <v>25761723</v>
       </c>
     </row>
     <row r="161">
@@ -4456,22 +4456,22 @@
         </is>
       </c>
       <c r="B161" s="2" t="n">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C161" t="n">
-        <v>150.5899963379</v>
+        <v>150</v>
       </c>
       <c r="D161" t="n">
-        <v>152.1100006104</v>
+        <v>150.0500030518</v>
       </c>
       <c r="E161" t="n">
-        <v>150.0599975586</v>
+        <v>145.5500030518</v>
       </c>
       <c r="F161" t="n">
-        <v>150.6000061035</v>
+        <v>148.9499969482</v>
       </c>
       <c r="G161" t="n">
-        <v>20499709</v>
+        <v>39701388</v>
       </c>
     </row>
     <row r="162">
@@ -4481,22 +4481,22 @@
         </is>
       </c>
       <c r="B162" s="2" t="n">
-        <v>45638</v>
+        <v>45642</v>
       </c>
       <c r="C162" t="n">
-        <v>150.8699951172</v>
+        <v>148.9400024414</v>
       </c>
       <c r="D162" t="n">
-        <v>151.6300048828</v>
+        <v>149.8000030518</v>
       </c>
       <c r="E162" t="n">
-        <v>148.6999969482</v>
+        <v>147.1000061035</v>
       </c>
       <c r="F162" t="n">
-        <v>150.7799987793</v>
+        <v>147.7899932861</v>
       </c>
       <c r="G162" t="n">
-        <v>25761723</v>
+        <v>22634773</v>
       </c>
     </row>
     <row r="163">
@@ -4506,22 +4506,22 @@
         </is>
       </c>
       <c r="B163" s="2" t="n">
-        <v>45639</v>
+        <v>45643</v>
       </c>
       <c r="C163" t="n">
-        <v>150</v>
+        <v>147.7899932861</v>
       </c>
       <c r="D163" t="n">
-        <v>150.0500030518</v>
+        <v>148.5</v>
       </c>
       <c r="E163" t="n">
-        <v>145.5500030518</v>
+        <v>145.3300018311</v>
       </c>
       <c r="F163" t="n">
-        <v>148.9499969482</v>
+        <v>145.6799926758</v>
       </c>
       <c r="G163" t="n">
-        <v>39701388</v>
+        <v>27110781</v>
       </c>
     </row>
     <row r="164">
@@ -4531,22 +4531,22 @@
         </is>
       </c>
       <c r="B164" s="2" t="n">
-        <v>45642</v>
+        <v>45644</v>
       </c>
       <c r="C164" t="n">
-        <v>148.9400024414</v>
+        <v>146</v>
       </c>
       <c r="D164" t="n">
-        <v>149.8000030518</v>
+        <v>146.8999938965</v>
       </c>
       <c r="E164" t="n">
-        <v>147.1000061035</v>
+        <v>143.3000030518</v>
       </c>
       <c r="F164" t="n">
-        <v>147.7899932861</v>
+        <v>144.4600067139</v>
       </c>
       <c r="G164" t="n">
-        <v>22634773</v>
+        <v>19850229</v>
       </c>
     </row>
     <row r="165">
@@ -4556,22 +4556,22 @@
         </is>
       </c>
       <c r="B165" s="2" t="n">
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="C165" t="n">
-        <v>147.7899932861</v>
+        <v>141.5500030518</v>
       </c>
       <c r="D165" t="n">
-        <v>148.5</v>
+        <v>143.8000030518</v>
       </c>
       <c r="E165" t="n">
-        <v>145.3300018311</v>
+        <v>141.1000061035</v>
       </c>
       <c r="F165" t="n">
-        <v>145.6799926758</v>
+        <v>143.2599945068</v>
       </c>
       <c r="G165" t="n">
-        <v>27110781</v>
+        <v>27104579</v>
       </c>
     </row>
     <row r="166">
@@ -4581,22 +4581,22 @@
         </is>
       </c>
       <c r="B166" s="2" t="n">
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="C166" t="n">
-        <v>146</v>
+        <v>142.8899993896</v>
       </c>
       <c r="D166" t="n">
-        <v>146.8999938965</v>
+        <v>144.3999938965</v>
       </c>
       <c r="E166" t="n">
-        <v>143.3000030518</v>
+        <v>140</v>
       </c>
       <c r="F166" t="n">
-        <v>144.4600067139</v>
+        <v>140.6799926758</v>
       </c>
       <c r="G166" t="n">
-        <v>19850229</v>
+        <v>46503449</v>
       </c>
     </row>
     <row r="167">
@@ -4606,22 +4606,22 @@
         </is>
       </c>
       <c r="B167" s="2" t="n">
-        <v>45645</v>
+        <v>45649</v>
       </c>
       <c r="C167" t="n">
-        <v>141.5500030518</v>
+        <v>142.4499969482</v>
       </c>
       <c r="D167" t="n">
         <v>143.8000030518</v>
       </c>
       <c r="E167" t="n">
-        <v>141.1000061035</v>
+        <v>140.6100006104</v>
       </c>
       <c r="F167" t="n">
-        <v>143.2599945068</v>
+        <v>141.7100067139</v>
       </c>
       <c r="G167" t="n">
-        <v>27104579</v>
+        <v>27514178</v>
       </c>
     </row>
     <row r="168">
@@ -4631,22 +4631,22 @@
         </is>
       </c>
       <c r="B168" s="2" t="n">
-        <v>45646</v>
+        <v>45650</v>
       </c>
       <c r="C168" t="n">
-        <v>142.8899993896</v>
+        <v>141.1999969482</v>
       </c>
       <c r="D168" t="n">
-        <v>144.3999938965</v>
+        <v>141.5</v>
       </c>
       <c r="E168" t="n">
-        <v>140</v>
+        <v>139.25</v>
       </c>
       <c r="F168" t="n">
-        <v>140.6799926758</v>
+        <v>140.3800048828</v>
       </c>
       <c r="G168" t="n">
-        <v>46503449</v>
+        <v>25882917</v>
       </c>
     </row>
     <row r="169">
@@ -4656,22 +4656,22 @@
         </is>
       </c>
       <c r="B169" s="2" t="n">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="C169" t="n">
-        <v>142.4499969482</v>
+        <v>140.9499969482</v>
       </c>
       <c r="D169" t="n">
-        <v>143.8000030518</v>
+        <v>141.1499938965</v>
       </c>
       <c r="E169" t="n">
-        <v>140.6100006104</v>
+        <v>139.5099945068</v>
       </c>
       <c r="F169" t="n">
-        <v>141.7100067139</v>
+        <v>140.3600006104</v>
       </c>
       <c r="G169" t="n">
-        <v>27514178</v>
+        <v>23939932</v>
       </c>
     </row>
     <row r="170">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="B170" s="2" t="n">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="C170" t="n">
-        <v>141.1999969482</v>
+        <v>140.6999969482</v>
       </c>
       <c r="D170" t="n">
-        <v>141.5</v>
+        <v>141.75</v>
       </c>
       <c r="E170" t="n">
-        <v>139.25</v>
+        <v>138.6100006104</v>
       </c>
       <c r="F170" t="n">
-        <v>140.3800048828</v>
+        <v>138.9100036621</v>
       </c>
       <c r="G170" t="n">
-        <v>25882917</v>
+        <v>19562177</v>
       </c>
     </row>
     <row r="171">
@@ -4706,22 +4706,22 @@
         </is>
       </c>
       <c r="B171" s="2" t="n">
-        <v>45652</v>
+        <v>45656</v>
       </c>
       <c r="C171" t="n">
-        <v>140.9499969482</v>
+        <v>138.9100036621</v>
       </c>
       <c r="D171" t="n">
-        <v>141.1499938965</v>
+        <v>139.25</v>
       </c>
       <c r="E171" t="n">
-        <v>139.5099945068</v>
+        <v>136.0899963379</v>
       </c>
       <c r="F171" t="n">
-        <v>140.3600006104</v>
+        <v>136.8800048828</v>
       </c>
       <c r="G171" t="n">
-        <v>23939932</v>
+        <v>32555723</v>
       </c>
     </row>
     <row r="172">
@@ -4731,22 +4731,22 @@
         </is>
       </c>
       <c r="B172" s="2" t="n">
-        <v>45653</v>
+        <v>45657</v>
       </c>
       <c r="C172" t="n">
-        <v>140.6999969482</v>
+        <v>136.8699951172</v>
       </c>
       <c r="D172" t="n">
-        <v>141.75</v>
+        <v>138.6799926758</v>
       </c>
       <c r="E172" t="n">
-        <v>138.6100006104</v>
+        <v>136.5599975586</v>
       </c>
       <c r="F172" t="n">
-        <v>138.9100036621</v>
+        <v>138.0500030518</v>
       </c>
       <c r="G172" t="n">
-        <v>19562177</v>
+        <v>20080291</v>
       </c>
     </row>
     <row r="173">
@@ -4756,22 +4756,22 @@
         </is>
       </c>
       <c r="B173" s="2" t="n">
-        <v>45656</v>
+        <v>45658</v>
       </c>
       <c r="C173" t="n">
-        <v>138.9100036621</v>
+        <v>138.1000061035</v>
       </c>
       <c r="D173" t="n">
-        <v>139.25</v>
+        <v>138.4499969482</v>
       </c>
       <c r="E173" t="n">
-        <v>136.0899963379</v>
+        <v>136.5800018311</v>
       </c>
       <c r="F173" t="n">
-        <v>136.8800048828</v>
+        <v>136.7400054932</v>
       </c>
       <c r="G173" t="n">
-        <v>32555723</v>
+        <v>18169498</v>
       </c>
     </row>
     <row r="174">
@@ -4781,22 +4781,22 @@
         </is>
       </c>
       <c r="B174" s="2" t="n">
-        <v>45657</v>
+        <v>45659</v>
       </c>
       <c r="C174" t="n">
-        <v>136.8699951172</v>
+        <v>137</v>
       </c>
       <c r="D174" t="n">
-        <v>138.6799926758</v>
+        <v>138.4499969482</v>
       </c>
       <c r="E174" t="n">
-        <v>136.5599975586</v>
+        <v>136.3999938965</v>
       </c>
       <c r="F174" t="n">
-        <v>138.0500030518</v>
+        <v>138.1799926758</v>
       </c>
       <c r="G174" t="n">
-        <v>20080291</v>
+        <v>23388424</v>
       </c>
     </row>
     <row r="175">
@@ -4806,22 +4806,22 @@
         </is>
       </c>
       <c r="B175" s="2" t="n">
-        <v>45658</v>
+        <v>45660</v>
       </c>
       <c r="C175" t="n">
-        <v>138.1000061035</v>
+        <v>138.1799926758</v>
       </c>
       <c r="D175" t="n">
-        <v>138.4499969482</v>
+        <v>139.7299957275</v>
       </c>
       <c r="E175" t="n">
-        <v>136.5800018311</v>
+        <v>137.8399963379</v>
       </c>
       <c r="F175" t="n">
-        <v>136.7400054932</v>
+        <v>138.3600006104</v>
       </c>
       <c r="G175" t="n">
-        <v>18169498</v>
+        <v>23351832</v>
       </c>
     </row>
     <row r="176">
@@ -4831,22 +4831,22 @@
         </is>
       </c>
       <c r="B176" s="2" t="n">
-        <v>45659</v>
+        <v>45663</v>
       </c>
       <c r="C176" t="n">
-        <v>137</v>
+        <v>138.3600006104</v>
       </c>
       <c r="D176" t="n">
-        <v>138.4499969482</v>
+        <v>138.3899993896</v>
       </c>
       <c r="E176" t="n">
-        <v>136.3999938965</v>
+        <v>131.3500061035</v>
       </c>
       <c r="F176" t="n">
-        <v>138.1799926758</v>
+        <v>132.1799926758</v>
       </c>
       <c r="G176" t="n">
-        <v>23388424</v>
+        <v>44620509</v>
       </c>
     </row>
     <row r="177">
@@ -4856,22 +4856,22 @@
         </is>
       </c>
       <c r="B177" s="2" t="n">
-        <v>45660</v>
+        <v>45664</v>
       </c>
       <c r="C177" t="n">
-        <v>138.1799926758</v>
+        <v>132.7799987793</v>
       </c>
       <c r="D177" t="n">
-        <v>139.7299957275</v>
+        <v>133.8800048828</v>
       </c>
       <c r="E177" t="n">
-        <v>137.8399963379</v>
+        <v>132.0099945068</v>
       </c>
       <c r="F177" t="n">
-        <v>138.3600006104</v>
+        <v>133.3800048828</v>
       </c>
       <c r="G177" t="n">
-        <v>23351832</v>
+        <v>24239451</v>
       </c>
     </row>
     <row r="178">
@@ -4881,22 +4881,22 @@
         </is>
       </c>
       <c r="B178" s="2" t="n">
-        <v>45663</v>
+        <v>45665</v>
       </c>
       <c r="C178" t="n">
-        <v>138.3600006104</v>
+        <v>133.9299926758</v>
       </c>
       <c r="D178" t="n">
-        <v>138.3899993896</v>
+        <v>134.2400054932</v>
       </c>
       <c r="E178" t="n">
-        <v>131.3500061035</v>
+        <v>131.7700042725</v>
       </c>
       <c r="F178" t="n">
-        <v>132.1799926758</v>
+        <v>132.6399993896</v>
       </c>
       <c r="G178" t="n">
-        <v>44620509</v>
+        <v>31570331</v>
       </c>
     </row>
     <row r="179">
@@ -4906,22 +4906,22 @@
         </is>
       </c>
       <c r="B179" s="2" t="n">
-        <v>45664</v>
+        <v>45666</v>
       </c>
       <c r="C179" t="n">
-        <v>132.7799987793</v>
+        <v>132</v>
       </c>
       <c r="D179" t="n">
-        <v>133.8800048828</v>
+        <v>132.3999938965</v>
       </c>
       <c r="E179" t="n">
-        <v>132.0099945068</v>
+        <v>129.6999969482</v>
       </c>
       <c r="F179" t="n">
-        <v>133.3800048828</v>
+        <v>129.9299926758</v>
       </c>
       <c r="G179" t="n">
-        <v>24239451</v>
+        <v>31903107</v>
       </c>
     </row>
     <row r="180">
@@ -4931,22 +4931,22 @@
         </is>
       </c>
       <c r="B180" s="2" t="n">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="C180" t="n">
-        <v>133.9299926758</v>
+        <v>129.9299926758</v>
       </c>
       <c r="D180" t="n">
-        <v>134.2400054932</v>
+        <v>130.3899993896</v>
       </c>
       <c r="E180" t="n">
-        <v>131.7700042725</v>
+        <v>126.6999969482</v>
       </c>
       <c r="F180" t="n">
-        <v>132.6399993896</v>
+        <v>127.4300003052</v>
       </c>
       <c r="G180" t="n">
-        <v>31570331</v>
+        <v>34855510</v>
       </c>
     </row>
     <row r="181">
@@ -4956,22 +4956,22 @@
         </is>
       </c>
       <c r="B181" s="2" t="n">
-        <v>45666</v>
+        <v>45670</v>
       </c>
       <c r="C181" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D181" t="n">
-        <v>132.3999938965</v>
+        <v>126.5</v>
       </c>
       <c r="E181" t="n">
-        <v>129.6999969482</v>
+        <v>122.6200027466</v>
       </c>
       <c r="F181" t="n">
-        <v>129.9299926758</v>
+        <v>122.9300003052</v>
       </c>
       <c r="G181" t="n">
-        <v>31903107</v>
+        <v>38968332</v>
       </c>
     </row>
     <row r="182">
@@ -4981,22 +4981,22 @@
         </is>
       </c>
       <c r="B182" s="2" t="n">
-        <v>45667</v>
+        <v>45671</v>
       </c>
       <c r="C182" t="n">
-        <v>129.9299926758</v>
+        <v>122.9400024414</v>
       </c>
       <c r="D182" t="n">
-        <v>130.3899993896</v>
+        <v>127.6399993896</v>
       </c>
       <c r="E182" t="n">
-        <v>126.6999969482</v>
+        <v>122.9400024414</v>
       </c>
       <c r="F182" t="n">
-        <v>127.4300003052</v>
+        <v>126.9300003052</v>
       </c>
       <c r="G182" t="n">
-        <v>34855510</v>
+        <v>36877365</v>
       </c>
     </row>
     <row r="183">
@@ -5006,22 +5006,22 @@
         </is>
       </c>
       <c r="B183" s="2" t="n">
-        <v>45670</v>
+        <v>45672</v>
       </c>
       <c r="C183" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D183" t="n">
-        <v>126.5</v>
+        <v>128.3099975586</v>
       </c>
       <c r="E183" t="n">
-        <v>122.6200027466</v>
+        <v>125.7799987793</v>
       </c>
       <c r="F183" t="n">
-        <v>122.9300003052</v>
+        <v>126.5299987793</v>
       </c>
       <c r="G183" t="n">
-        <v>38968332</v>
+        <v>18773125</v>
       </c>
     </row>
     <row r="184">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="B184" s="2" t="n">
-        <v>45671</v>
+        <v>45673</v>
       </c>
       <c r="C184" t="n">
-        <v>122.9400024414</v>
+        <v>128</v>
       </c>
       <c r="D184" t="n">
-        <v>127.6399993896</v>
+        <v>128.4700012207</v>
       </c>
       <c r="E184" t="n">
-        <v>122.9400024414</v>
+        <v>126.5599975586</v>
       </c>
       <c r="F184" t="n">
-        <v>126.9300003052</v>
+        <v>127.8099975586</v>
       </c>
       <c r="G184" t="n">
-        <v>36877365</v>
+        <v>22164393</v>
       </c>
     </row>
     <row r="185">
@@ -5056,22 +5056,22 @@
         </is>
       </c>
       <c r="B185" s="2" t="n">
-        <v>45672</v>
+        <v>45674</v>
       </c>
       <c r="C185" t="n">
-        <v>128</v>
+        <v>127.9000015259</v>
       </c>
       <c r="D185" t="n">
-        <v>128.3099975586</v>
+        <v>131.1600036621</v>
       </c>
       <c r="E185" t="n">
-        <v>125.7799987793</v>
+        <v>127.6399993896</v>
       </c>
       <c r="F185" t="n">
-        <v>126.5299987793</v>
+        <v>130.2799987793</v>
       </c>
       <c r="G185" t="n">
-        <v>18773125</v>
+        <v>27421959</v>
       </c>
     </row>
     <row r="186">
@@ -5081,22 +5081,22 @@
         </is>
       </c>
       <c r="B186" s="2" t="n">
-        <v>45673</v>
+        <v>45677</v>
       </c>
       <c r="C186" t="n">
-        <v>128</v>
+        <v>130.9900054932</v>
       </c>
       <c r="D186" t="n">
-        <v>128.4700012207</v>
+        <v>132.1000061035</v>
       </c>
       <c r="E186" t="n">
-        <v>126.5599975586</v>
+        <v>128.9100036621</v>
       </c>
       <c r="F186" t="n">
-        <v>127.8099975586</v>
+        <v>131.6600036621</v>
       </c>
       <c r="G186" t="n">
-        <v>22164393</v>
+        <v>20571916</v>
       </c>
     </row>
     <row r="187">
@@ -5106,22 +5106,22 @@
         </is>
       </c>
       <c r="B187" s="2" t="n">
-        <v>45674</v>
+        <v>45678</v>
       </c>
       <c r="C187" t="n">
-        <v>127.9000015259</v>
+        <v>132.0599975586</v>
       </c>
       <c r="D187" t="n">
-        <v>131.1600036621</v>
+        <v>132.3999938965</v>
       </c>
       <c r="E187" t="n">
-        <v>127.6399993896</v>
+        <v>129.25</v>
       </c>
       <c r="F187" t="n">
-        <v>130.2799987793</v>
+        <v>129.6999969482</v>
       </c>
       <c r="G187" t="n">
-        <v>27421959</v>
+        <v>32238213</v>
       </c>
     </row>
     <row r="188">
@@ -5131,22 +5131,22 @@
         </is>
       </c>
       <c r="B188" s="2" t="n">
-        <v>45677</v>
+        <v>45679</v>
       </c>
       <c r="C188" t="n">
-        <v>130.9900054932</v>
+        <v>130.25</v>
       </c>
       <c r="D188" t="n">
-        <v>132.1000061035</v>
+        <v>130.3500061035</v>
       </c>
       <c r="E188" t="n">
-        <v>128.9100036621</v>
+        <v>127.1200027466</v>
       </c>
       <c r="F188" t="n">
-        <v>131.6600036621</v>
+        <v>128.9199981689</v>
       </c>
       <c r="G188" t="n">
-        <v>20571916</v>
+        <v>27505569</v>
       </c>
     </row>
     <row r="189">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="B189" s="2" t="n">
-        <v>45678</v>
+        <v>45680</v>
       </c>
       <c r="C189" t="n">
-        <v>132.0599975586</v>
+        <v>127.8499984741</v>
       </c>
       <c r="D189" t="n">
-        <v>132.3999938965</v>
+        <v>130.75</v>
       </c>
       <c r="E189" t="n">
-        <v>129.25</v>
+        <v>127.6999969482</v>
       </c>
       <c r="F189" t="n">
-        <v>129.6999969482</v>
+        <v>130.3699951172</v>
       </c>
       <c r="G189" t="n">
-        <v>32238213</v>
+        <v>20722538</v>
       </c>
     </row>
     <row r="190">
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B190" s="2" t="n">
-        <v>45679</v>
+        <v>45681</v>
       </c>
       <c r="C190" t="n">
-        <v>130.25</v>
+        <v>130.5</v>
       </c>
       <c r="D190" t="n">
-        <v>130.3500061035</v>
+        <v>133.1999969482</v>
       </c>
       <c r="E190" t="n">
-        <v>127.1200027466</v>
+        <v>129.3099975586</v>
       </c>
       <c r="F190" t="n">
-        <v>128.9199981689</v>
+        <v>129.7400054932</v>
       </c>
       <c r="G190" t="n">
-        <v>27505569</v>
+        <v>37092106</v>
       </c>
     </row>
     <row r="191">
@@ -5206,22 +5206,22 @@
         </is>
       </c>
       <c r="B191" s="2" t="n">
-        <v>45680</v>
+        <v>45684</v>
       </c>
       <c r="C191" t="n">
-        <v>127.8499984741</v>
+        <v>129.0200042725</v>
       </c>
       <c r="D191" t="n">
-        <v>130.75</v>
+        <v>129.4499969482</v>
       </c>
       <c r="E191" t="n">
-        <v>127.6999969482</v>
+        <v>125.7399978638</v>
       </c>
       <c r="F191" t="n">
-        <v>130.3699951172</v>
+        <v>126.3700027466</v>
       </c>
       <c r="G191" t="n">
-        <v>20722538</v>
+        <v>24650571</v>
       </c>
     </row>
     <row r="192">
@@ -5231,22 +5231,22 @@
         </is>
       </c>
       <c r="B192" s="2" t="n">
-        <v>45681</v>
+        <v>45685</v>
       </c>
       <c r="C192" t="n">
-        <v>130.5</v>
+        <v>126.3700027466</v>
       </c>
       <c r="D192" t="n">
-        <v>133.1999969482</v>
+        <v>130.4900054932</v>
       </c>
       <c r="E192" t="n">
-        <v>129.3099975586</v>
+        <v>124.7399978638</v>
       </c>
       <c r="F192" t="n">
-        <v>129.7400054932</v>
+        <v>128.6199951172</v>
       </c>
       <c r="G192" t="n">
-        <v>37092106</v>
+        <v>40373804</v>
       </c>
     </row>
     <row r="193">
@@ -5256,22 +5256,22 @@
         </is>
       </c>
       <c r="B193" s="2" t="n">
-        <v>45684</v>
+        <v>45686</v>
       </c>
       <c r="C193" t="n">
-        <v>129.0200042725</v>
+        <v>129</v>
       </c>
       <c r="D193" t="n">
-        <v>129.4499969482</v>
+        <v>131.3399963379</v>
       </c>
       <c r="E193" t="n">
-        <v>125.7399978638</v>
+        <v>128.5500030518</v>
       </c>
       <c r="F193" t="n">
-        <v>126.3700027466</v>
+        <v>130.8000030518</v>
       </c>
       <c r="G193" t="n">
-        <v>24650571</v>
+        <v>16674706</v>
       </c>
     </row>
     <row r="194">
@@ -5281,22 +5281,22 @@
         </is>
       </c>
       <c r="B194" s="2" t="n">
-        <v>45685</v>
+        <v>45687</v>
       </c>
       <c r="C194" t="n">
-        <v>126.3700027466</v>
+        <v>130.8000030518</v>
       </c>
       <c r="D194" t="n">
-        <v>130.4900054932</v>
+        <v>132.1499938965</v>
       </c>
       <c r="E194" t="n">
-        <v>124.7399978638</v>
+        <v>130.1000061035</v>
       </c>
       <c r="F194" t="n">
-        <v>128.6199951172</v>
+        <v>131.1199951172</v>
       </c>
       <c r="G194" t="n">
-        <v>40373804</v>
+        <v>25256096</v>
       </c>
     </row>
     <row r="195">
@@ -5306,22 +5306,22 @@
         </is>
       </c>
       <c r="B195" s="2" t="n">
-        <v>45686</v>
+        <v>45688</v>
       </c>
       <c r="C195" t="n">
-        <v>129</v>
+        <v>131.1199951172</v>
       </c>
       <c r="D195" t="n">
-        <v>131.3399963379</v>
+        <v>135</v>
       </c>
       <c r="E195" t="n">
-        <v>128.5500030518</v>
+        <v>129.9299926758</v>
       </c>
       <c r="F195" t="n">
-        <v>130.8000030518</v>
+        <v>134.6199951172</v>
       </c>
       <c r="G195" t="n">
-        <v>16674706</v>
+        <v>26689228</v>
       </c>
     </row>
     <row r="196">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B196" s="2" t="n">
-        <v>45687</v>
+        <v>45689</v>
       </c>
       <c r="C196" t="n">
-        <v>130.8000030518</v>
+        <v>135</v>
       </c>
       <c r="D196" t="n">
-        <v>132.1499938965</v>
+        <v>135.5</v>
       </c>
       <c r="E196" t="n">
-        <v>130.1000061035</v>
+        <v>130.25</v>
       </c>
       <c r="F196" t="n">
-        <v>131.1199951172</v>
+        <v>132.9700012207</v>
       </c>
       <c r="G196" t="n">
-        <v>25256096</v>
+        <v>21173846</v>
       </c>
     </row>
     <row r="197">
@@ -5356,22 +5356,22 @@
         </is>
       </c>
       <c r="B197" s="2" t="n">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="C197" t="n">
-        <v>131.1199951172</v>
+        <v>131.2899932861</v>
       </c>
       <c r="D197" t="n">
-        <v>135</v>
+        <v>132.5099945068</v>
       </c>
       <c r="E197" t="n">
-        <v>129.9299926758</v>
+        <v>127.8099975586</v>
       </c>
       <c r="F197" t="n">
-        <v>134.6199951172</v>
+        <v>131.8200073242</v>
       </c>
       <c r="G197" t="n">
-        <v>26689228</v>
+        <v>27765357</v>
       </c>
     </row>
     <row r="198">
@@ -5381,22 +5381,22 @@
         </is>
       </c>
       <c r="B198" s="2" t="n">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="C198" t="n">
-        <v>135</v>
+        <v>132.8000030518</v>
       </c>
       <c r="D198" t="n">
-        <v>135.5</v>
+        <v>134.3399963379</v>
       </c>
       <c r="E198" t="n">
-        <v>130.25</v>
+        <v>131.8699951172</v>
       </c>
       <c r="F198" t="n">
-        <v>132.9700012207</v>
+        <v>133.4199981689</v>
       </c>
       <c r="G198" t="n">
-        <v>21173846</v>
+        <v>25032519</v>
       </c>
     </row>
     <row r="199">
@@ -5406,22 +5406,22 @@
         </is>
       </c>
       <c r="B199" s="2" t="n">
-        <v>45691</v>
+        <v>45693</v>
       </c>
       <c r="C199" t="n">
-        <v>131.2899932861</v>
+        <v>133.1499938965</v>
       </c>
       <c r="D199" t="n">
-        <v>132.5099945068</v>
+        <v>135.3899993896</v>
       </c>
       <c r="E199" t="n">
-        <v>127.8099975586</v>
+        <v>133.0800018311</v>
       </c>
       <c r="F199" t="n">
-        <v>131.8200073242</v>
+        <v>134.3999938965</v>
       </c>
       <c r="G199" t="n">
-        <v>27765357</v>
+        <v>16958362</v>
       </c>
     </row>
     <row r="200">
@@ -5431,22 +5431,22 @@
         </is>
       </c>
       <c r="B200" s="2" t="n">
-        <v>45692</v>
+        <v>45694</v>
       </c>
       <c r="C200" t="n">
-        <v>132.8000030518</v>
+        <v>134.5</v>
       </c>
       <c r="D200" t="n">
-        <v>134.3399963379</v>
+        <v>134.8699951172</v>
       </c>
       <c r="E200" t="n">
-        <v>131.8699951172</v>
+        <v>132.0200042725</v>
       </c>
       <c r="F200" t="n">
-        <v>133.4199981689</v>
+        <v>132.5399932861</v>
       </c>
       <c r="G200" t="n">
-        <v>25032519</v>
+        <v>22408168</v>
       </c>
     </row>
     <row r="201">
@@ -5456,22 +5456,22 @@
         </is>
       </c>
       <c r="B201" s="2" t="n">
-        <v>45693</v>
+        <v>45695</v>
       </c>
       <c r="C201" t="n">
-        <v>133.1499938965</v>
+        <v>133.3000030518</v>
       </c>
       <c r="D201" t="n">
-        <v>135.3899993896</v>
+        <v>138.75</v>
       </c>
       <c r="E201" t="n">
-        <v>133.0800018311</v>
+        <v>132.5599975586</v>
       </c>
       <c r="F201" t="n">
-        <v>134.3999938965</v>
+        <v>138.3099975586</v>
       </c>
       <c r="G201" t="n">
-        <v>16958362</v>
+        <v>52950146</v>
       </c>
     </row>
     <row r="202">
@@ -5481,22 +5481,22 @@
         </is>
       </c>
       <c r="B202" s="2" t="n">
-        <v>45694</v>
+        <v>45698</v>
       </c>
       <c r="C202" t="n">
-        <v>134.5</v>
+        <v>138.1000061035</v>
       </c>
       <c r="D202" t="n">
-        <v>134.8699951172</v>
+        <v>138.1000061035</v>
       </c>
       <c r="E202" t="n">
-        <v>132.0200042725</v>
+        <v>133</v>
       </c>
       <c r="F202" t="n">
-        <v>132.5399932861</v>
+        <v>134.0399932861</v>
       </c>
       <c r="G202" t="n">
-        <v>22408168</v>
+        <v>26120805</v>
       </c>
     </row>
     <row r="203">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="B203" s="2" t="n">
-        <v>45695</v>
+        <v>45699</v>
       </c>
       <c r="C203" t="n">
-        <v>133.3000030518</v>
+        <v>133</v>
       </c>
       <c r="D203" t="n">
-        <v>138.75</v>
+        <v>134.3399963379</v>
       </c>
       <c r="E203" t="n">
-        <v>132.5599975586</v>
+        <v>129.6999969482</v>
       </c>
       <c r="F203" t="n">
-        <v>138.3099975586</v>
+        <v>130.1100006104</v>
       </c>
       <c r="G203" t="n">
-        <v>52950146</v>
+        <v>23635428</v>
       </c>
     </row>
     <row r="204">
@@ -5531,22 +5531,22 @@
         </is>
       </c>
       <c r="B204" s="2" t="n">
-        <v>45698</v>
+        <v>45700</v>
       </c>
       <c r="C204" t="n">
-        <v>138.1000061035</v>
+        <v>129.3500061035</v>
       </c>
       <c r="D204" t="n">
-        <v>138.1000061035</v>
+        <v>133.2899932861</v>
       </c>
       <c r="E204" t="n">
-        <v>133</v>
+        <v>128.3099975586</v>
       </c>
       <c r="F204" t="n">
-        <v>134.0399932861</v>
+        <v>132.2799987793</v>
       </c>
       <c r="G204" t="n">
-        <v>26120805</v>
+        <v>37927696</v>
       </c>
     </row>
     <row r="205">
@@ -5556,22 +5556,22 @@
         </is>
       </c>
       <c r="B205" s="2" t="n">
-        <v>45699</v>
+        <v>45701</v>
       </c>
       <c r="C205" t="n">
-        <v>133</v>
+        <v>132.2799987793</v>
       </c>
       <c r="D205" t="n">
-        <v>134.3399963379</v>
+        <v>137.6900024414</v>
       </c>
       <c r="E205" t="n">
-        <v>129.6999969482</v>
+        <v>131.8600006104</v>
       </c>
       <c r="F205" t="n">
-        <v>130.1100006104</v>
+        <v>136.25</v>
       </c>
       <c r="G205" t="n">
-        <v>23635428</v>
+        <v>52036196</v>
       </c>
     </row>
     <row r="206">
@@ -5581,22 +5581,22 @@
         </is>
       </c>
       <c r="B206" s="2" t="n">
-        <v>45700</v>
+        <v>45702</v>
       </c>
       <c r="C206" t="n">
-        <v>129.3500061035</v>
+        <v>136.25</v>
       </c>
       <c r="D206" t="n">
-        <v>133.2899932861</v>
+        <v>139.25</v>
       </c>
       <c r="E206" t="n">
-        <v>128.3099975586</v>
+        <v>133.3300018311</v>
       </c>
       <c r="F206" t="n">
-        <v>132.2799987793</v>
+        <v>134.4700012207</v>
       </c>
       <c r="G206" t="n">
-        <v>37927696</v>
+        <v>41469242</v>
       </c>
     </row>
     <row r="207">
@@ -5606,22 +5606,22 @@
         </is>
       </c>
       <c r="B207" s="2" t="n">
-        <v>45701</v>
+        <v>45705</v>
       </c>
       <c r="C207" t="n">
-        <v>132.2799987793</v>
+        <v>132.9100036621</v>
       </c>
       <c r="D207" t="n">
-        <v>137.6900024414</v>
+        <v>134.8000030518</v>
       </c>
       <c r="E207" t="n">
-        <v>131.8600006104</v>
+        <v>130.7299957275</v>
       </c>
       <c r="F207" t="n">
-        <v>136.25</v>
+        <v>134.2899932861</v>
       </c>
       <c r="G207" t="n">
-        <v>52036196</v>
+        <v>21189637</v>
       </c>
     </row>
     <row r="208">
@@ -5631,22 +5631,22 @@
         </is>
       </c>
       <c r="B208" s="2" t="n">
-        <v>45702</v>
+        <v>45706</v>
       </c>
       <c r="C208" t="n">
-        <v>136.25</v>
+        <v>134.2899932861</v>
       </c>
       <c r="D208" t="n">
-        <v>139.25</v>
+        <v>134.8999938965</v>
       </c>
       <c r="E208" t="n">
-        <v>133.3300018311</v>
+        <v>131.75</v>
       </c>
       <c r="F208" t="n">
-        <v>134.4700012207</v>
+        <v>134.5399932861</v>
       </c>
       <c r="G208" t="n">
-        <v>41469242</v>
+        <v>23957576</v>
       </c>
     </row>
     <row r="209">
@@ -5656,22 +5656,22 @@
         </is>
       </c>
       <c r="B209" s="2" t="n">
-        <v>45705</v>
+        <v>45707</v>
       </c>
       <c r="C209" t="n">
-        <v>132.9100036621</v>
+        <v>134.5</v>
       </c>
       <c r="D209" t="n">
-        <v>134.8000030518</v>
+        <v>136.8800048828</v>
       </c>
       <c r="E209" t="n">
-        <v>130.7299957275</v>
+        <v>133.0299987793</v>
       </c>
       <c r="F209" t="n">
-        <v>134.2899932861</v>
+        <v>135.7599945068</v>
       </c>
       <c r="G209" t="n">
-        <v>21189637</v>
+        <v>18447487</v>
       </c>
     </row>
     <row r="210">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="B210" s="2" t="n">
-        <v>45706</v>
+        <v>45708</v>
       </c>
       <c r="C210" t="n">
-        <v>134.2899932861</v>
+        <v>135.2700042725</v>
       </c>
       <c r="D210" t="n">
-        <v>134.8999938965</v>
+        <v>138.3600006104</v>
       </c>
       <c r="E210" t="n">
-        <v>131.75</v>
+        <v>135</v>
       </c>
       <c r="F210" t="n">
-        <v>134.5399932861</v>
+        <v>138.0399932861</v>
       </c>
       <c r="G210" t="n">
-        <v>23957576</v>
+        <v>24139808</v>
       </c>
     </row>
     <row r="211">
@@ -5706,22 +5706,22 @@
         </is>
       </c>
       <c r="B211" s="2" t="n">
-        <v>45707</v>
+        <v>45709</v>
       </c>
       <c r="C211" t="n">
-        <v>134.5</v>
+        <v>137.9100036621</v>
       </c>
       <c r="D211" t="n">
-        <v>136.8800048828</v>
+        <v>141.6000061035</v>
       </c>
       <c r="E211" t="n">
-        <v>133.0299987793</v>
+        <v>137.1499938965</v>
       </c>
       <c r="F211" t="n">
-        <v>135.7599945068</v>
+        <v>140.7599945068</v>
       </c>
       <c r="G211" t="n">
-        <v>18447487</v>
+        <v>41987785</v>
       </c>
     </row>
     <row r="212">
@@ -5731,22 +5731,22 @@
         </is>
       </c>
       <c r="B212" s="2" t="n">
-        <v>45708</v>
+        <v>45712</v>
       </c>
       <c r="C212" t="n">
-        <v>135.2700042725</v>
+        <v>138.8099975586</v>
       </c>
       <c r="D212" t="n">
-        <v>138.3600006104</v>
+        <v>140.6600036621</v>
       </c>
       <c r="E212" t="n">
-        <v>135</v>
+        <v>136.6600036621</v>
       </c>
       <c r="F212" t="n">
-        <v>138.0399932861</v>
+        <v>137.6499938965</v>
       </c>
       <c r="G212" t="n">
-        <v>24139808</v>
+        <v>25193205</v>
       </c>
     </row>
     <row r="213">
@@ -5756,22 +5756,22 @@
         </is>
       </c>
       <c r="B213" s="2" t="n">
-        <v>45709</v>
+        <v>45713</v>
       </c>
       <c r="C213" t="n">
-        <v>137.9100036621</v>
+        <v>138.4900054932</v>
       </c>
       <c r="D213" t="n">
-        <v>141.6000061035</v>
+        <v>139.3500061035</v>
       </c>
       <c r="E213" t="n">
-        <v>137.1499938965</v>
+        <v>136.6999969482</v>
       </c>
       <c r="F213" t="n">
-        <v>140.7599945068</v>
+        <v>137.0700073242</v>
       </c>
       <c r="G213" t="n">
-        <v>41987785</v>
+        <v>23575603</v>
       </c>
     </row>
     <row r="214">
@@ -5781,22 +5781,22 @@
         </is>
       </c>
       <c r="B214" s="2" t="n">
-        <v>45712</v>
+        <v>45715</v>
       </c>
       <c r="C214" t="n">
-        <v>138.8099975586</v>
+        <v>137.2100067139</v>
       </c>
       <c r="D214" t="n">
-        <v>140.6600036621</v>
+        <v>138.9900054932</v>
       </c>
       <c r="E214" t="n">
-        <v>136.6600036621</v>
+        <v>135.8800048828</v>
       </c>
       <c r="F214" t="n">
-        <v>137.6499938965</v>
+        <v>138.6900024414</v>
       </c>
       <c r="G214" t="n">
-        <v>25193205</v>
+        <v>30747044</v>
       </c>
     </row>
     <row r="215">
@@ -5806,22 +5806,22 @@
         </is>
       </c>
       <c r="B215" s="2" t="n">
-        <v>45713</v>
+        <v>45716</v>
       </c>
       <c r="C215" t="n">
-        <v>138.4900054932</v>
+        <v>137.8000030518</v>
       </c>
       <c r="D215" t="n">
-        <v>139.3500061035</v>
+        <v>137.8000030518</v>
       </c>
       <c r="E215" t="n">
-        <v>136.6999969482</v>
+        <v>134.0599975586</v>
       </c>
       <c r="F215" t="n">
-        <v>137.0700073242</v>
+        <v>137.1999969482</v>
       </c>
       <c r="G215" t="n">
-        <v>23575603</v>
+        <v>45540594</v>
       </c>
     </row>
     <row r="216">
@@ -5831,22 +5831,22 @@
         </is>
       </c>
       <c r="B216" s="2" t="n">
-        <v>45715</v>
+        <v>45719</v>
       </c>
       <c r="C216" t="n">
-        <v>137.2100067139</v>
+        <v>137</v>
       </c>
       <c r="D216" t="n">
-        <v>138.9900054932</v>
+        <v>139.0500030518</v>
       </c>
       <c r="E216" t="n">
-        <v>135.8800048828</v>
+        <v>134.3099975586</v>
       </c>
       <c r="F216" t="n">
-        <v>138.6900024414</v>
+        <v>138.5700073242</v>
       </c>
       <c r="G216" t="n">
-        <v>30747044</v>
+        <v>31154401</v>
       </c>
     </row>
     <row r="217">
@@ -5856,22 +5856,22 @@
         </is>
       </c>
       <c r="B217" s="2" t="n">
-        <v>45716</v>
+        <v>45720</v>
       </c>
       <c r="C217" t="n">
-        <v>137.8000030518</v>
+        <v>136.1499938965</v>
       </c>
       <c r="D217" t="n">
-        <v>137.8000030518</v>
+        <v>140.9400024414</v>
       </c>
       <c r="E217" t="n">
-        <v>134.0599975586</v>
+        <v>135.8099975586</v>
       </c>
       <c r="F217" t="n">
-        <v>137.1999969482</v>
+        <v>139.3399963379</v>
       </c>
       <c r="G217" t="n">
-        <v>45540594</v>
+        <v>28634645</v>
       </c>
     </row>
     <row r="218">
@@ -5881,22 +5881,22 @@
         </is>
       </c>
       <c r="B218" s="2" t="n">
-        <v>45719</v>
+        <v>45721</v>
       </c>
       <c r="C218" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D218" t="n">
-        <v>139.0500030518</v>
+        <v>146.4900054932</v>
       </c>
       <c r="E218" t="n">
-        <v>134.3099975586</v>
+        <v>139</v>
       </c>
       <c r="F218" t="n">
-        <v>138.5700073242</v>
+        <v>146.1000061035</v>
       </c>
       <c r="G218" t="n">
-        <v>31154401</v>
+        <v>62109377</v>
       </c>
     </row>
     <row r="219">
@@ -5906,22 +5906,22 @@
         </is>
       </c>
       <c r="B219" s="2" t="n">
-        <v>45720</v>
+        <v>45722</v>
       </c>
       <c r="C219" t="n">
-        <v>136.1499938965</v>
+        <v>146.7899932861</v>
       </c>
       <c r="D219" t="n">
-        <v>140.9400024414</v>
+        <v>152.1999969482</v>
       </c>
       <c r="E219" t="n">
-        <v>135.8099975586</v>
+        <v>146.1999969482</v>
       </c>
       <c r="F219" t="n">
-        <v>139.3399963379</v>
+        <v>150.4400024414</v>
       </c>
       <c r="G219" t="n">
-        <v>28634645</v>
+        <v>79121467</v>
       </c>
     </row>
     <row r="220">
@@ -5931,22 +5931,22 @@
         </is>
       </c>
       <c r="B220" s="2" t="n">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="C220" t="n">
-        <v>139</v>
+        <v>149.7400054932</v>
       </c>
       <c r="D220" t="n">
-        <v>146.4900054932</v>
+        <v>152.4499969482</v>
       </c>
       <c r="E220" t="n">
-        <v>139</v>
+        <v>149.2700042725</v>
       </c>
       <c r="F220" t="n">
-        <v>146.1000061035</v>
+        <v>151.5599975586</v>
       </c>
       <c r="G220" t="n">
-        <v>62109377</v>
+        <v>81821791</v>
       </c>
     </row>
     <row r="221">
@@ -5956,22 +5956,22 @@
         </is>
       </c>
       <c r="B221" s="2" t="n">
-        <v>45722</v>
+        <v>45726</v>
       </c>
       <c r="C221" t="n">
-        <v>146.7899932861</v>
+        <v>151.5599975586</v>
       </c>
       <c r="D221" t="n">
-        <v>152.1999969482</v>
+        <v>154.2400054932</v>
       </c>
       <c r="E221" t="n">
-        <v>146.1999969482</v>
+        <v>150.4100036621</v>
       </c>
       <c r="F221" t="n">
-        <v>150.4400024414</v>
+        <v>151.0500030518</v>
       </c>
       <c r="G221" t="n">
-        <v>79121467</v>
+        <v>54450331</v>
       </c>
     </row>
     <row r="222">
@@ -5981,22 +5981,22 @@
         </is>
       </c>
       <c r="B222" s="2" t="n">
-        <v>45723</v>
+        <v>45727</v>
       </c>
       <c r="C222" t="n">
-        <v>149.7400054932</v>
+        <v>148.1000061035</v>
       </c>
       <c r="D222" t="n">
-        <v>152.4499969482</v>
+        <v>151.6999969482</v>
       </c>
       <c r="E222" t="n">
-        <v>149.2700042725</v>
+        <v>148</v>
       </c>
       <c r="F222" t="n">
-        <v>151.5599975586</v>
+        <v>150.75</v>
       </c>
       <c r="G222" t="n">
-        <v>81821791</v>
+        <v>35916900</v>
       </c>
     </row>
     <row r="223">
@@ -6006,22 +6006,22 @@
         </is>
       </c>
       <c r="B223" s="2" t="n">
-        <v>45726</v>
+        <v>45728</v>
       </c>
       <c r="C223" t="n">
-        <v>151.5599975586</v>
+        <v>151</v>
       </c>
       <c r="D223" t="n">
-        <v>154.2400054932</v>
+        <v>152.2799987793</v>
       </c>
       <c r="E223" t="n">
-        <v>150.4100036621</v>
+        <v>147.6999969482</v>
       </c>
       <c r="F223" t="n">
-        <v>151.0500030518</v>
+        <v>150.3000030518</v>
       </c>
       <c r="G223" t="n">
-        <v>54450331</v>
+        <v>26377549</v>
       </c>
     </row>
     <row r="224">
@@ -6031,22 +6031,22 @@
         </is>
       </c>
       <c r="B224" s="2" t="n">
-        <v>45727</v>
+        <v>45729</v>
       </c>
       <c r="C224" t="n">
-        <v>148.1000061035</v>
+        <v>152</v>
       </c>
       <c r="D224" t="n">
-        <v>151.6999969482</v>
+        <v>153.5599975586</v>
       </c>
       <c r="E224" t="n">
-        <v>148</v>
+        <v>150.0200042725</v>
       </c>
       <c r="F224" t="n">
-        <v>150.75</v>
+        <v>150.8800048828</v>
       </c>
       <c r="G224" t="n">
-        <v>35916900</v>
+        <v>48286431</v>
       </c>
     </row>
     <row r="225">
@@ -6056,22 +6056,22 @@
         </is>
       </c>
       <c r="B225" s="2" t="n">
-        <v>45728</v>
+        <v>45733</v>
       </c>
       <c r="C225" t="n">
-        <v>151</v>
+        <v>151.9900054932</v>
       </c>
       <c r="D225" t="n">
-        <v>152.2799987793</v>
+        <v>152.6399993896</v>
       </c>
       <c r="E225" t="n">
-        <v>147.6999969482</v>
+        <v>150.8999938965</v>
       </c>
       <c r="F225" t="n">
-        <v>150.3000030518</v>
+        <v>151.8099975586</v>
       </c>
       <c r="G225" t="n">
-        <v>26377549</v>
+        <v>35879780</v>
       </c>
     </row>
     <row r="226">
@@ -6081,22 +6081,22 @@
         </is>
       </c>
       <c r="B226" s="2" t="n">
-        <v>45729</v>
+        <v>45734</v>
       </c>
       <c r="C226" t="n">
-        <v>152</v>
+        <v>151.8099975586</v>
       </c>
       <c r="D226" t="n">
-        <v>153.5599975586</v>
+        <v>151.8099975586</v>
       </c>
       <c r="E226" t="n">
-        <v>150.0200042725</v>
+        <v>151.8099975586</v>
       </c>
       <c r="F226" t="n">
-        <v>150.8800048828</v>
+        <v>151.8099975586</v>
       </c>
       <c r="G226" t="n">
-        <v>48286431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -6106,22 +6106,22 @@
         </is>
       </c>
       <c r="B227" s="2" t="n">
-        <v>45733</v>
+        <v>45735</v>
       </c>
       <c r="C227" t="n">
-        <v>151.9900054932</v>
+        <v>156.8000030518</v>
       </c>
       <c r="D227" t="n">
-        <v>152.6399993896</v>
+        <v>159.1999969482</v>
       </c>
       <c r="E227" t="n">
-        <v>150.8999938965</v>
+        <v>156.5</v>
       </c>
       <c r="F227" t="n">
-        <v>151.8099975586</v>
+        <v>158.6000061035</v>
       </c>
       <c r="G227" t="n">
-        <v>35879780</v>
+        <v>66161413</v>
       </c>
     </row>
     <row r="228">
@@ -6131,22 +6131,22 @@
         </is>
       </c>
       <c r="B228" s="2" t="n">
-        <v>45734</v>
+        <v>45736</v>
       </c>
       <c r="C228" t="n">
-        <v>151.8099975586</v>
+        <v>160</v>
       </c>
       <c r="D228" t="n">
-        <v>151.8099975586</v>
+        <v>160.1000061035</v>
       </c>
       <c r="E228" t="n">
-        <v>151.8099975586</v>
+        <v>156.6499938965</v>
       </c>
       <c r="F228" t="n">
-        <v>151.8099975586</v>
+        <v>159.0399932861</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>39889517</v>
       </c>
     </row>
     <row r="229">
@@ -6156,22 +6156,22 @@
         </is>
       </c>
       <c r="B229" s="2" t="n">
-        <v>45735</v>
+        <v>45737</v>
       </c>
       <c r="C229" t="n">
-        <v>156.8000030518</v>
+        <v>159.0299987793</v>
       </c>
       <c r="D229" t="n">
-        <v>159.1999969482</v>
+        <v>159.75</v>
       </c>
       <c r="E229" t="n">
-        <v>156.5</v>
+        <v>156.8200073242</v>
       </c>
       <c r="F229" t="n">
-        <v>158.6000061035</v>
+        <v>157.2799987793</v>
       </c>
       <c r="G229" t="n">
-        <v>66161413</v>
+        <v>49184821</v>
       </c>
     </row>
     <row r="230">
@@ -6181,22 +6181,22 @@
         </is>
       </c>
       <c r="B230" s="2" t="n">
-        <v>45736</v>
+        <v>45740</v>
       </c>
       <c r="C230" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D230" t="n">
-        <v>160.1000061035</v>
+        <v>159</v>
       </c>
       <c r="E230" t="n">
-        <v>156.6499938965</v>
+        <v>157.1100006104</v>
       </c>
       <c r="F230" t="n">
-        <v>159.0399932861</v>
+        <v>158.4199981689</v>
       </c>
       <c r="G230" t="n">
-        <v>39889517</v>
+        <v>30905773</v>
       </c>
     </row>
     <row r="231">
@@ -6206,22 +6206,22 @@
         </is>
       </c>
       <c r="B231" s="2" t="n">
-        <v>45737</v>
+        <v>45741</v>
       </c>
       <c r="C231" t="n">
-        <v>159.0299987793</v>
+        <v>159</v>
       </c>
       <c r="D231" t="n">
-        <v>159.75</v>
+        <v>159</v>
       </c>
       <c r="E231" t="n">
-        <v>156.8200073242</v>
+        <v>156.0500030518</v>
       </c>
       <c r="F231" t="n">
-        <v>157.2799987793</v>
+        <v>156.7299957275</v>
       </c>
       <c r="G231" t="n">
-        <v>49184821</v>
+        <v>28467187</v>
       </c>
     </row>
     <row r="232">
@@ -6231,22 +6231,22 @@
         </is>
       </c>
       <c r="B232" s="2" t="n">
-        <v>45740</v>
+        <v>45742</v>
       </c>
       <c r="C232" t="n">
-        <v>158</v>
+        <v>156.1999969482</v>
       </c>
       <c r="D232" t="n">
-        <v>159</v>
+        <v>157.5399932861</v>
       </c>
       <c r="E232" t="n">
-        <v>157.1100006104</v>
+        <v>155.0099945068</v>
       </c>
       <c r="F232" t="n">
-        <v>158.4199981689</v>
+        <v>155.8099975586</v>
       </c>
       <c r="G232" t="n">
-        <v>30905773</v>
+        <v>23182869</v>
       </c>
     </row>
     <row r="233">
@@ -6256,22 +6256,22 @@
         </is>
       </c>
       <c r="B233" s="2" t="n">
-        <v>45741</v>
+        <v>45743</v>
       </c>
       <c r="C233" t="n">
-        <v>159</v>
+        <v>154.8000030518</v>
       </c>
       <c r="D233" t="n">
-        <v>159</v>
+        <v>156.1000061035</v>
       </c>
       <c r="E233" t="n">
-        <v>156.0500030518</v>
+        <v>154.1999969482</v>
       </c>
       <c r="F233" t="n">
-        <v>156.7299957275</v>
+        <v>155.4199981689</v>
       </c>
       <c r="G233" t="n">
-        <v>28467187</v>
+        <v>25909068</v>
       </c>
     </row>
     <row r="234">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B234" s="2" t="n">
-        <v>45742</v>
+        <v>45744</v>
       </c>
       <c r="C234" t="n">
-        <v>156.1999969482</v>
+        <v>155.3800048828</v>
       </c>
       <c r="D234" t="n">
-        <v>157.5399932861</v>
+        <v>156.9100036621</v>
       </c>
       <c r="E234" t="n">
-        <v>155.0099945068</v>
+        <v>153.3699951172</v>
       </c>
       <c r="F234" t="n">
-        <v>155.8099975586</v>
+        <v>154.2400054932</v>
       </c>
       <c r="G234" t="n">
-        <v>23182869</v>
+        <v>24589315</v>
       </c>
     </row>
     <row r="235">
@@ -6306,22 +6306,22 @@
         </is>
       </c>
       <c r="B235" s="2" t="n">
-        <v>45743</v>
+        <v>45748</v>
       </c>
       <c r="C235" t="n">
-        <v>154.8000030518</v>
+        <v>152.0700073242</v>
       </c>
       <c r="D235" t="n">
-        <v>156.1000061035</v>
+        <v>155.3399963379</v>
       </c>
       <c r="E235" t="n">
-        <v>154.1999969482</v>
+        <v>152.0700073242</v>
       </c>
       <c r="F235" t="n">
-        <v>155.4199981689</v>
+        <v>153.1199951172</v>
       </c>
       <c r="G235" t="n">
-        <v>25909068</v>
+        <v>29142122</v>
       </c>
     </row>
     <row r="236">
@@ -6331,22 +6331,22 @@
         </is>
       </c>
       <c r="B236" s="2" t="n">
-        <v>45744</v>
+        <v>45749</v>
       </c>
       <c r="C236" t="n">
-        <v>155.3800048828</v>
+        <v>154</v>
       </c>
       <c r="D236" t="n">
-        <v>156.9100036621</v>
+        <v>156.25</v>
       </c>
       <c r="E236" t="n">
-        <v>153.3699951172</v>
+        <v>152.2700042725</v>
       </c>
       <c r="F236" t="n">
-        <v>154.2400054932</v>
+        <v>154.6900024414</v>
       </c>
       <c r="G236" t="n">
-        <v>24589315</v>
+        <v>24977582</v>
       </c>
     </row>
     <row r="237">
@@ -6356,22 +6356,22 @@
         </is>
       </c>
       <c r="B237" s="2" t="n">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="C237" t="n">
-        <v>152.0700073242</v>
+        <v>153</v>
       </c>
       <c r="D237" t="n">
-        <v>155.3399963379</v>
+        <v>155.9700012207</v>
       </c>
       <c r="E237" t="n">
-        <v>152.0700073242</v>
+        <v>152.6000061035</v>
       </c>
       <c r="F237" t="n">
-        <v>153.1199951172</v>
+        <v>153.6199951172</v>
       </c>
       <c r="G237" t="n">
-        <v>29142122</v>
+        <v>15117526</v>
       </c>
     </row>
     <row r="238">
@@ -6381,22 +6381,22 @@
         </is>
       </c>
       <c r="B238" s="2" t="n">
-        <v>45749</v>
+        <v>45751</v>
       </c>
       <c r="C238" t="n">
-        <v>154</v>
+        <v>152.6199951172</v>
       </c>
       <c r="D238" t="n">
-        <v>156.25</v>
+        <v>152.9900054932</v>
       </c>
       <c r="E238" t="n">
-        <v>152.2700042725</v>
+        <v>140</v>
       </c>
       <c r="F238" t="n">
-        <v>154.6900024414</v>
+        <v>140.3899993896</v>
       </c>
       <c r="G238" t="n">
-        <v>24977582</v>
+        <v>80846143</v>
       </c>
     </row>
     <row r="239">
@@ -6406,22 +6406,22 @@
         </is>
       </c>
       <c r="B239" s="2" t="n">
-        <v>45750</v>
+        <v>45754</v>
       </c>
       <c r="C239" t="n">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="D239" t="n">
-        <v>155.9700012207</v>
+        <v>130.3500061035</v>
       </c>
       <c r="E239" t="n">
-        <v>152.6000061035</v>
+        <v>125.3300018311</v>
       </c>
       <c r="F239" t="n">
-        <v>153.6199951172</v>
+        <v>129.4799957275</v>
       </c>
       <c r="G239" t="n">
-        <v>15117526</v>
+        <v>121806340</v>
       </c>
     </row>
     <row r="240">
@@ -6431,22 +6431,22 @@
         </is>
       </c>
       <c r="B240" s="2" t="n">
-        <v>45751</v>
+        <v>45755</v>
       </c>
       <c r="C240" t="n">
-        <v>152.6199951172</v>
+        <v>134.8899993896</v>
       </c>
       <c r="D240" t="n">
-        <v>152.9900054932</v>
+        <v>136.1999969482</v>
       </c>
       <c r="E240" t="n">
-        <v>140</v>
+        <v>128.0200042725</v>
       </c>
       <c r="F240" t="n">
-        <v>140.3899993896</v>
+        <v>130.2799987793</v>
       </c>
       <c r="G240" t="n">
-        <v>80846143</v>
+        <v>68999181</v>
       </c>
     </row>
     <row r="241">
@@ -6456,22 +6456,22 @@
         </is>
       </c>
       <c r="B241" s="2" t="n">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="C241" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D241" t="n">
-        <v>130.3500061035</v>
+        <v>130</v>
       </c>
       <c r="E241" t="n">
-        <v>125.3300018311</v>
+        <v>125.3000030518</v>
       </c>
       <c r="F241" t="n">
-        <v>129.4799957275</v>
+        <v>127.1800003052</v>
       </c>
       <c r="G241" t="n">
-        <v>121806340</v>
+        <v>73399980</v>
       </c>
     </row>
     <row r="242">
@@ -6481,22 +6481,22 @@
         </is>
       </c>
       <c r="B242" s="2" t="n">
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="C242" t="n">
-        <v>134.8899993896</v>
+        <v>134.6699981689</v>
       </c>
       <c r="D242" t="n">
-        <v>136.1999969482</v>
+        <v>134.6999969482</v>
       </c>
       <c r="E242" t="n">
-        <v>128.0200042725</v>
+        <v>130.4900054932</v>
       </c>
       <c r="F242" t="n">
-        <v>130.2799987793</v>
+        <v>133.4199981689</v>
       </c>
       <c r="G242" t="n">
-        <v>68999181</v>
+        <v>73706472</v>
       </c>
     </row>
     <row r="243">
@@ -6506,22 +6506,22 @@
         </is>
       </c>
       <c r="B243" s="2" t="n">
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="C243" t="n">
-        <v>130</v>
+        <v>135.6000061035</v>
       </c>
       <c r="D243" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E243" t="n">
-        <v>125.3000030518</v>
+        <v>134.8399963379</v>
       </c>
       <c r="F243" t="n">
-        <v>127.1800003052</v>
+        <v>136.4100036621</v>
       </c>
       <c r="G243" t="n">
-        <v>73399980</v>
+        <v>38967608</v>
       </c>
     </row>
     <row r="244">
@@ -6531,22 +6531,22 @@
         </is>
       </c>
       <c r="B244" s="2" t="n">
-        <v>45758</v>
+        <v>45763</v>
       </c>
       <c r="C244" t="n">
-        <v>134.6699981689</v>
+        <v>136.4100036621</v>
       </c>
       <c r="D244" t="n">
-        <v>134.6999969482</v>
+        <v>137.6000061035</v>
       </c>
       <c r="E244" t="n">
-        <v>130.4900054932</v>
+        <v>134.6199951172</v>
       </c>
       <c r="F244" t="n">
-        <v>133.4199981689</v>
+        <v>136.9700012207</v>
       </c>
       <c r="G244" t="n">
-        <v>73706472</v>
+        <v>42684087</v>
       </c>
     </row>
     <row r="245">
@@ -6556,22 +6556,22 @@
         </is>
       </c>
       <c r="B245" s="2" t="n">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="C245" t="n">
-        <v>135.6000061035</v>
+        <v>134.3999938965</v>
       </c>
       <c r="D245" t="n">
-        <v>137</v>
+        <v>137.9600067139</v>
       </c>
       <c r="E245" t="n">
-        <v>134.8399963379</v>
+        <v>133.6999969482</v>
       </c>
       <c r="F245" t="n">
-        <v>136.4100036621</v>
+        <v>137.1399993896</v>
       </c>
       <c r="G245" t="n">
-        <v>38967608</v>
+        <v>62282856</v>
       </c>
     </row>
     <row r="246">
@@ -6581,22 +6581,22 @@
         </is>
       </c>
       <c r="B246" s="2" t="n">
-        <v>45763</v>
+        <v>45768</v>
       </c>
       <c r="C246" t="n">
-        <v>136.4100036621</v>
+        <v>137.6499938965</v>
       </c>
       <c r="D246" t="n">
-        <v>137.6000061035</v>
+        <v>140.3000030518</v>
       </c>
       <c r="E246" t="n">
-        <v>134.6199951172</v>
+        <v>137.0500030518</v>
       </c>
       <c r="F246" t="n">
-        <v>136.9700012207</v>
+        <v>139.1799926758</v>
       </c>
       <c r="G246" t="n">
-        <v>42684087</v>
+        <v>26503486</v>
       </c>
     </row>
     <row r="247">
@@ -6606,22 +6606,22 @@
         </is>
       </c>
       <c r="B247" s="2" t="n">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="C247" t="n">
-        <v>134.3999938965</v>
+        <v>142</v>
       </c>
       <c r="D247" t="n">
-        <v>137.9600067139</v>
+        <v>142.8399963379</v>
       </c>
       <c r="E247" t="n">
-        <v>133.6999969482</v>
+        <v>137.6999969482</v>
       </c>
       <c r="F247" t="n">
-        <v>137.1399993896</v>
+        <v>138.1600036621</v>
       </c>
       <c r="G247" t="n">
-        <v>62282856</v>
+        <v>58429662</v>
       </c>
     </row>
     <row r="248">
@@ -6631,22 +6631,22 @@
         </is>
       </c>
       <c r="B248" s="2" t="n">
-        <v>45768</v>
+        <v>45770</v>
       </c>
       <c r="C248" t="n">
-        <v>137.6499938965</v>
+        <v>139.3899993896</v>
       </c>
       <c r="D248" t="n">
-        <v>140.3000030518</v>
+        <v>141.5</v>
       </c>
       <c r="E248" t="n">
-        <v>137.0500030518</v>
+        <v>137.3200073242</v>
       </c>
       <c r="F248" t="n">
-        <v>139.1799926758</v>
+        <v>141.1600036621</v>
       </c>
       <c r="G248" t="n">
-        <v>26503486</v>
+        <v>37851304</v>
       </c>
     </row>
   </sheetData>
